--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38D721A-73BB-41F5-90B7-1A7496498875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC50C6A-3359-4B7F-BCB0-D335137A9F74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
+    <sheet name="skill" sheetId="2" r:id="rId2"/>
+    <sheet name="buff" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,22 +69,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>快速攻击的角色，星星越多攻击越快</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魔法师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高攻击力，星星越多攻击力越高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>勇者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>间隔一段时间产出阳光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>比较均衡的角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,6 +94,138 @@
   </si>
   <si>
     <t>name#string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是主动技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度加快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击变高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速攻击的角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，星星越多，攻击的越快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，星星越多，初始攻击力越高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>振奋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动技能，十秒内给所有人增加攻击力！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟缓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，可以对敌人造成减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去了攻击能力的无情产阳光机器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>atkType#number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击类型 1普通 2范围 0无法攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以攻击一个范围内的敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">技能类型 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillType#number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param#{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type:1,num:0.1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type:2,num:1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{targetType:2,buff:1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{targetType:1,buff:2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{cold:4,num:3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，间隔一段时间产出阳光,升星星可以增加产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{str:'atk',num:10,add:3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{str:'spd',num:-50,add:-5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isActive#bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cool#number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,9 +592,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D0E652-86CF-433A-BD6F-177C0A6FDF59}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -486,6 +604,7 @@
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="37.25" customWidth="1"/>
+    <col min="6" max="6" width="28.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -504,13 +623,16 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -521,6 +643,9 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -536,7 +661,10 @@
         <v>0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -544,7 +672,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -553,10 +681,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
+        <v>33</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -564,7 +692,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -573,7 +701,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -581,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -590,7 +721,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -598,16 +732,272 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>99999999</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1917D1-1E80-49DA-BCD2-DF0A5B07018B}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="47.25" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>999</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6983423-C835-4E57-BDD0-3AAA7B61ADEF}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC50C6A-3359-4B7F-BCB0-D335137A9F74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5C5646-AAAB-4C53-B924-76B4FF4CB30E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -592,9 +592,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D0E652-86CF-433A-BD6F-177C0A6FDF59}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -758,9 +758,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1917D1-1E80-49DA-BCD2-DF0A5B07018B}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5C5646-AAAB-4C53-B924-76B4FF4CB30E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58FB51B-5D29-45E4-9504-F92FB4537524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -592,7 +592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D0E652-86CF-433A-BD6F-177C0A6FDF59}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
@@ -758,9 +758,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1917D1-1E80-49DA-BCD2-DF0A5B07018B}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58FB51B-5D29-45E4-9504-F92FB4537524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03D9D67-9F11-4E8A-B38C-7AC182005586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
@@ -197,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{targetType:1,buff:2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{cold:4,num:3}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,6 +222,10 @@
   </si>
   <si>
     <t>cool#number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{targetType:1,buff:2,time:5}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,7 +760,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -770,7 +770,7 @@
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="16.25" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -784,7 +784,7 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
         <v>20</v>
@@ -807,10 +807,10 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -908,7 +908,7 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -919,7 +919,7 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -947,7 +947,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -986,7 +986,7 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -997,7 +997,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03D9D67-9F11-4E8A-B38C-7AC182005586}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD702C00-9FBD-44FA-A080-87AA95F2B81E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
@@ -193,10 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{targetType:2,buff:1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{cold:4,num:3}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,6 +222,10 @@
   </si>
   <si>
     <t>{targetType:1,buff:2,time:5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{targetType:2,buff:1,time:10}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,7 +760,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -784,7 +784,7 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
         <v>20</v>
@@ -807,10 +807,10 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
         <v>35</v>
@@ -885,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -908,7 +908,7 @@
         <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -919,7 +919,7 @@
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -986,7 +986,7 @@
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -997,7 +997,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD702C00-9FBD-44FA-A080-87AA95F2B81E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD93C0E-D57D-4B2F-8CF8-AD98EEC56BA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
+    <workbookView xWindow="29130" yWindow="-2745" windowWidth="21510" windowHeight="18915" activeTab="1" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="163">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,18 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可以对敌人造成减速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比较均衡的角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向日葵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name#string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>快速攻击的角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>被动技能，星星越多，攻击的越快</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,10 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>失去了攻击能力的无情产阳光机器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>atkType#number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可以攻击一个范围内的敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">技能类型 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,10 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{str:'atk',num:10,add:3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{str:'spd',num:-50,add:-5}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,6 +198,537 @@
   </si>
   <si>
     <t>{targetType:2,buff:1,time:10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明明很普通却那么自信，在一定时间向全体赋予攻击力增益。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要星星相同，可以与任何角色合体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合体时，随机召唤一个一星的角色，虽然概率很低，但是偶尔会多召唤出一个！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌人非常严厉，会让敌人减速，当怪物涌入时会起到不错的效果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向敌人投掷带火的飞镖，燃烧的敌人会在一定时间内收到伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用风的角色，可以强力攻击燃烧的敌人，除掉燃烧的敌人可以引发爆炸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以加快周围角色的攻击速度，进行快速快速更快速的攻击吧！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据当前的阳光提高攻击力，只要阳光足够，就可以非常强力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光小伙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk#string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速攻击的角色,星级越多会攻击的越快！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跆拳道家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁上君子</t>
+  </si>
+  <si>
+    <t>易容大师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女忍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解说员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有超高的治疗技巧，每隔一定时间生产名誉，即使不会攻击也无所谓吧？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死神骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用无属性范围魔法，星级越高攻击力会变得非常非常强！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放松身心吧，由我来搞定。</t>
+  </si>
+  <si>
+    <t>对减速的敌人造成更大的伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备好接受审判了吗？</t>
+  </si>
+  <si>
+    <t>按一定的概率秒杀小怪。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相邻加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同星合体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，加快周围角色的攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，可以与任意同星级的角色合体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{str:'atk',num:100,add:10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我…或许能拯救世界！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要去理解它，要试着去感受它。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天下武功唯快不破！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>什么时候放下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>什么时候就没有烦恼。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一张饼，切三刀，平均切成八份，该怎么切？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用神秘的力量弱化一个敌人，被弱化的敌人会受到更多伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以与任意角色合体，合体后星星变为平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天才法师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用闪电进行攻击，按照星级可以同时攻击多个敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵来将挡水来土掩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穷则独善其身，达则兼济天下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想我是什么，我就是什么。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>始于礼，终于礼。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备好进入火焰世界了吗?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵使社会再怎么进步，人性不会有丝毫改变。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芜湖起飞！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光与影乃遥不可及。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万物皆虚，万事皆允。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以额外召唤两名角色，运气好会召唤三名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捣蛋鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把角色填满一行，攻击力将会变强，挑战bingo吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>探险家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予便是收获。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不是实力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全是运气。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神奇蒙面侠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么样，怕了吧</t>
+  </si>
+  <si>
+    <t>随机向敌人发射猫猫炸弹。星级越高，范围越大！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们只有团结才会强大，如果分裂，便不堪一击。</t>
+  </si>
+  <si>
+    <t>我们的征途是星辰大海！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强力引爆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，杀死燃烧敌人时将敌人引爆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，可以对敌人造成燃烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，合体时召唤一个一星角色，有概率再召唤一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰飞镖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运外援</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唱歌时全员将进入超高速加速模式！攻击速度会变得非常非常快！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动技能，十秒内给所有人增加攻击速度！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唱歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高速动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，攻击小怪的时候有概率秒杀敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，攻击力将按照场上所有刺客的星级之和提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照被招募的所有刺客的星级之和增加攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，对减速敌人造成更高伤害，并随星星的提升而提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，当前名声越大，攻击力越高！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深藏功与名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，攻击将给予敌人弱化buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>param#{}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{range:50}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪炸弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，星星越高范围越大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type:3,num:30,add:10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相邻加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{buff:4,targetType:3,time:99999999}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{stack:true,id:false}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{stack:false,id:false}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，可以与任意星星任意角色合体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{targetType:1,buff:5,time:5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{targetType:1,buff:3,time:5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{buff:2,mult:4,add:0.5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{buff:5,mult:3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{str:'hp',num:100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{num:10,add:5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动技能，再召唤两个角色，运气好再召唤一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{num:20,add:5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{targetType:2,buff:6,time:10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{str:'atkspd',num:30,add:6}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{str:'atkspd',num:200,add:10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同伴召唤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连锁闪电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bingo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，根据星星的数量连锁攻击敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，填满一行增加攻击速度，填满一列增加攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{num:2.5,add:0.3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{add:20}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{row:200,col:400}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{str:'damage',num:50,add:10}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,7 +736,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +751,60 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF666666"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF121212"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -272,8 +829,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -590,11 +1165,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D0E652-86CF-433A-BD6F-177C0A6FDF59}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -603,11 +1178,13 @@
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="37.25" customWidth="1"/>
-    <col min="6" max="6" width="28.125" customWidth="1"/>
+    <col min="5" max="5" width="70.5" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="28.125" customWidth="1"/>
+    <col min="8" max="8" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -624,15 +1201,21 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -644,10 +1227,16 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -655,19 +1244,22 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -675,19 +1267,25 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -695,56 +1293,433 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>80</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>1.4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>1.4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>1.4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>99999999</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13">
+        <v>70</v>
+      </c>
+      <c r="D13">
+        <v>1.2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>45</v>
+      </c>
+      <c r="D14">
+        <v>1.2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>1.5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>99999999</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18">
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>60</v>
+      </c>
+      <c r="D19">
+        <v>1.2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21">
+        <v>60</v>
+      </c>
+      <c r="D21">
+        <v>1.5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23">
+        <v>60</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -756,44 +1731,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1917D1-1E80-49DA-BCD2-DF0A5B07018B}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="47.25" customWidth="1"/>
+    <col min="3" max="3" width="52.5" customWidth="1"/>
     <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="16.25" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -801,22 +1776,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -824,10 +1799,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -839,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -847,10 +1822,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -862,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -870,10 +1845,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>40</v>
@@ -885,7 +1860,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -893,10 +1868,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -905,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -916,22 +1891,384 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>4</v>
       </c>
-      <c r="G7" t="s">
-        <v>41</v>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -943,17 +2280,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6983423-C835-4E57-BDD0-3AAA7B61ADEF}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -964,7 +2301,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -972,10 +2309,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -983,10 +2320,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -997,11 +2334,56 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD93C0E-D57D-4B2F-8CF8-AD98EEC56BA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80FE072-B9F7-4950-837C-B77CC10507BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29130" yWindow="-2745" windowWidth="21510" windowHeight="18915" activeTab="1" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
+    <workbookView xWindow="28890" yWindow="-2430" windowWidth="21510" windowHeight="18915" activeTab="2" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -720,15 +720,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{add:20}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{row:200,col:400}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{str:'damage',num:50,add:10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type:1,num:0.2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{row:2,col:4}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1169,7 +1169,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1733,9 +1733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1917D1-1E80-49DA-BCD2-DF0A5B07018B}">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2136,7 +2136,7 @@
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2239,7 +2239,7 @@
         <v>148</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -2267,8 +2267,11 @@
       <c r="E23" t="b">
         <v>0</v>
       </c>
+      <c r="F23">
+        <v>14</v>
+      </c>
       <c r="G23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2282,9 +2285,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6983423-C835-4E57-BDD0-3AAA7B61ADEF}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2345,7 +2348,7 @@
         <v>128</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">

--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80FE072-B9F7-4950-837C-B77CC10507BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4EEDF7-6B08-47F1-903F-227C013F330F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28890" yWindow="-2430" windowWidth="21510" windowHeight="18915" activeTab="2" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
+    <workbookView xWindow="28965" yWindow="420" windowWidth="21570" windowHeight="15660" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="171">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,14 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{type:1,num:0.1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{type:2,num:1}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{cold:4,num:3}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,42 +193,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>明明很普通却那么自信，在一定时间向全体赋予攻击力增益。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只要星星相同，可以与任何角色合体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合体时，随机召唤一个一星的角色，虽然概率很低，但是偶尔会多召唤出一个！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学者</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对敌人非常严厉，会让敌人减速，当怪物涌入时会起到不错的效果。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向敌人投掷带火的飞镖，燃烧的敌人会在一定时间内收到伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用风的角色，可以强力攻击燃烧的敌人，除掉燃烧的敌人可以引发爆炸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以加快周围角色的攻击速度，进行快速快速更快速的攻击吧！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据当前的阳光提高攻击力，只要阳光足够，就可以非常强力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>阳光小伙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -249,21 +209,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>快速攻击的角色,星级越多会攻击的越快！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>跆拳道家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>梁上君子</t>
-  </si>
-  <si>
-    <t>易容大师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>女忍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -276,10 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拥有超高的治疗技巧，每隔一定时间生产名誉，即使不会攻击也无所谓吧？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>偶像</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,22 +237,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用无属性范围魔法，星级越高攻击力会变得非常非常强！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>放松身心吧，由我来搞定。</t>
   </si>
   <si>
-    <t>对减速的敌人造成更大的伤害。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>准备好接受审判了吗？</t>
-  </si>
-  <si>
-    <t>按一定的概率秒杀小怪。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>刺客</t>
@@ -386,22 +319,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用神秘的力量弱化一个敌人，被弱化的敌人会受到更多伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以与任意角色合体，合体后星星变为平均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天才法师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使用闪电进行攻击，按照星级可以同时攻击多个敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>兵来将挡水来土掩。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -438,15 +359,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可以额外召唤两名角色，运气好会召唤三名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>捣蛋鬼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把角色填满一行，攻击力将会变强，挑战bingo吧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -505,10 +418,6 @@
     <t>怎么样，怕了吧</t>
   </si>
   <si>
-    <t>随机向敌人发射猫猫炸弹。星级越高，范围越大！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我们只有团结才会强大，如果分裂，便不堪一击。</t>
   </si>
   <si>
@@ -540,10 +449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>唱歌时全员将进入超高速加速模式！攻击速度会变得非常非常快！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主动技能，十秒内给所有人增加攻击速度！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -572,10 +477,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按照被招募的所有刺客的星级之和增加攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>被动技能，对减速敌人造成更高伤害，并随星星的提升而提升</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -656,14 +557,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{buff:2,mult:4,add:0.5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{buff:5,mult:3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{str:'hp',num:100}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -692,10 +585,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{str:'atkspd',num:200,add:10}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>同伴召唤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -729,6 +618,170 @@
   </si>
   <si>
     <t>{row:2,col:4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quality#number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;对&lt;color=#3AFFF3&gt;减速&lt;/color&gt;的敌人造成更大的伤害。&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;快速攻击的角色
+星级越多会&lt;color=#3AFFF3&gt;攻击的越快&lt;/color&gt;！&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;使用范围魔法攻击敌人
+星级越多攻击力会变得&lt;color=#3AFFF3&gt;非常非常强&lt;/color&gt;！&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>typeName#string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产型角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击型角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助型角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊型角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type:2,num:0.1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{str:'atkspd',num:100,add:10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{buff:5,mult:5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{buff:2,mult:3,add:0.5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;明明很普通却那么自信
+在一定时间向全体赋予&lt;color=#3AFFF3&gt;攻击力增益&lt;/color&gt;。&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;可以加快周围角色的&lt;color=#3AFFF3&gt;攻击速度&lt;/color&gt;
+进行快速快速更快速的攻击吧！&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;只要星星相同，可以与任何角色合体&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;按一定的概率秒杀小怪。&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;可以与任意角色合体
+合体后星星变为平均值&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;使用风的角色，随机攻击敌人
+可以强力攻击燃烧的敌人
+除掉燃烧的敌人会引发&lt;color=#3AFFF3&gt;爆炸&lt;/color&gt;&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;向敌人投掷带火的飞镖
+燃烧的敌人会在一定时间内受到伤害&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;使用冰的魔法，会让敌人&lt;color=#3AFFF3&gt;减速&lt;/color&gt;
+当怪物涌入时会起到不错的效果。&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;拥有超高的治疗技巧
+每隔一定时间生产名誉
+即使不会攻击也无所谓吧？&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;唱歌时全员将进入&lt;color=#3AFFF3&gt;超高速加速模式！&lt;/color&gt;
+攻击速度会变得非常非常快！&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;用神秘的力量弱化一个敌人
+被弱化的敌人会受到更多伤害&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;随机向敌人发射猫猫炸弹。
+&lt;color=#3AFFF3&gt;星级越高，范围越大！&lt;/color&gt;&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;使用闪电进行攻击
+按照星级可以同时攻击多个敌人&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;可以额外召唤两名角色
+运气好会召唤三名&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;召唤出更多的刺客
+将根据刺客们的星星和增加攻速&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;合体时，随机召唤一个一星的角色
+虽然概率很低但偶尔会多召唤出一个！&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;把角色填满一行，攻击力将会变强
+努力挑战bingo吧(●'◡'●)&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦想家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;根据当前的名誉提高攻击力
+只要名誉足够，就可以非常强力&lt;/c&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -829,11 +882,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -849,6 +899,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,562 +1221,708 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D0E652-86CF-433A-BD6F-177C0A6FDF59}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.375" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="70.5" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="28.125" customWidth="1"/>
-    <col min="8" max="8" width="66.5" customWidth="1"/>
+    <col min="2" max="2" width="5.625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="79.5" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="6.375" customWidth="1"/>
+    <col min="10" max="10" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>80</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>0.8</v>
       </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>100</v>
       </c>
-      <c r="D4">
-        <v>1.5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4">
+      <c r="F4">
         <v>2</v>
       </c>
+      <c r="G4" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="H4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>100</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6">
         <v>10</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7">
         <v>30</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8">
         <v>80</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="I8">
         <v>5</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J8" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9">
         <v>40</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>1.4</v>
       </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G9" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10">
         <v>30</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>1.4</v>
       </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G10" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11">
         <v>50</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>1.4</v>
       </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>99999999</v>
       </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G12" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13">
         <v>70</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>1.2</v>
       </c>
-      <c r="E13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G13" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14">
         <v>45</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>1.2</v>
       </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G14" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15">
         <v>40</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>1.5</v>
       </c>
-      <c r="E15" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G15" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16">
         <v>60</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C17">
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17">
         <v>100</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>2</v>
       </c>
-      <c r="E17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G17" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18">
         <v>50</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="G18" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19">
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19">
         <v>60</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>1.2</v>
       </c>
-      <c r="E19" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G19" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C20">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20">
         <v>60</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>106</v>
-      </c>
-      <c r="G20">
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="I20">
         <v>3</v>
       </c>
-      <c r="H20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21">
         <v>60</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>1.5</v>
       </c>
-      <c r="E21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21">
+      <c r="G21" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I21">
         <v>4</v>
       </c>
-      <c r="H21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22">
         <v>100</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23">
         <v>60</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G25" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1735,7 +1937,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1759,7 +1961,7 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
         <v>17</v>
@@ -1782,10 +1984,10 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -1814,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1837,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1860,7 +2062,7 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1868,10 +2070,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1883,7 +2085,7 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1891,10 +2093,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1906,7 +2108,7 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1914,10 +2116,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1929,7 +2131,7 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1937,10 +2139,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1952,7 +2154,7 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1960,10 +2162,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1975,7 +2177,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1998,7 +2200,7 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2009,7 +2211,7 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2021,7 +2223,7 @@
         <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -2029,10 +2231,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <v>40</v>
@@ -2044,7 +2246,7 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2052,10 +2254,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2067,7 +2269,7 @@
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2075,10 +2277,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2090,7 +2292,7 @@
         <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2098,10 +2300,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2113,7 +2315,7 @@
         <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2121,10 +2323,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2136,7 +2338,7 @@
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2144,10 +2346,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2159,7 +2361,7 @@
         <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -2167,10 +2369,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2182,7 +2384,7 @@
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2190,10 +2392,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2205,7 +2407,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2213,10 +2415,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2233,10 +2435,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D22">
         <v>10</v>
@@ -2248,7 +2450,7 @@
         <v>10</v>
       </c>
       <c r="G22" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2256,10 +2458,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2271,7 +2473,7 @@
         <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2285,9 +2487,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6983423-C835-4E57-BDD0-3AAA7B61ADEF}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2326,7 +2528,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2337,7 +2539,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2345,10 +2547,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2356,10 +2558,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2367,10 +2569,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2378,10 +2580,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4EEDF7-6B08-47F1-903F-227C013F330F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1948B897-9C5B-4341-BADD-132987029C4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28965" yWindow="420" windowWidth="21570" windowHeight="15660" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
-    <sheet name="skill" sheetId="2" r:id="rId2"/>
-    <sheet name="buff" sheetId="3" r:id="rId3"/>
+    <sheet name="monster" sheetId="4" r:id="rId2"/>
+    <sheet name="skill" sheetId="2" r:id="rId3"/>
+    <sheet name="buff" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="249">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -692,11 +693,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#412900&gt;可以加快周围角色的&lt;color=#3AFFF3&gt;攻击速度&lt;/color&gt;
-进行快速快速更快速的攻击吧！&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#412900&gt;只要星星相同，可以与任何角色合体&lt;/c&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -710,19 +706,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#412900&gt;使用风的角色，随机攻击敌人
-可以强力攻击燃烧的敌人
-除掉燃烧的敌人会引发&lt;color=#3AFFF3&gt;爆炸&lt;/color&gt;&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#412900&gt;向敌人投掷带火的飞镖
 燃烧的敌人会在一定时间内受到伤害&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#412900&gt;使用冰的魔法，会让敌人&lt;color=#3AFFF3&gt;减速&lt;/color&gt;
-当怪物涌入时会起到不错的效果。&lt;/c&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -732,21 +717,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#412900&gt;唱歌时全员将进入&lt;color=#3AFFF3&gt;超高速加速模式！&lt;/color&gt;
-攻击速度会变得非常非常快！&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#412900&gt;用神秘的力量弱化一个敌人
 被弱化的敌人会受到更多伤害&lt;/c&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#412900&gt;随机向敌人发射猫猫炸弹。
-&lt;color=#3AFFF3&gt;星级越高，范围越大！&lt;/color&gt;&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#412900&gt;使用闪电进行攻击
 按照星级可以同时攻击多个敌人&lt;/c&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -782,6 +757,270 @@
   <si>
     <t>&lt;color=#412900&gt;根据当前的名誉提高攻击力
 只要名誉足够，就可以非常强力&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>id#id</t>
+  </si>
+  <si>
+    <t>name#string</t>
+  </si>
+  <si>
+    <t>dec#string</t>
+  </si>
+  <si>
+    <t>史莱姆</t>
+  </si>
+  <si>
+    <t>青翠欲滴的史莱姆</t>
+  </si>
+  <si>
+    <t>火焰史莱姆</t>
+  </si>
+  <si>
+    <t>火炙之后的史莱姆</t>
+  </si>
+  <si>
+    <t>雷电史莱姆</t>
+  </si>
+  <si>
+    <t>被雷劈中的史莱姆</t>
+  </si>
+  <si>
+    <t>水史莱姆</t>
+  </si>
+  <si>
+    <t>生活在水里的史莱姆</t>
+  </si>
+  <si>
+    <t>迷途的老鼠</t>
+  </si>
+  <si>
+    <t>离家出走的老鼠</t>
+  </si>
+  <si>
+    <t>异变植株</t>
+  </si>
+  <si>
+    <t>可以自由活动的植物</t>
+  </si>
+  <si>
+    <t>堕魂狼</t>
+  </si>
+  <si>
+    <t>变成了魔物的一匹狼</t>
+  </si>
+  <si>
+    <t>骷髅狗</t>
+  </si>
+  <si>
+    <t>脸上画着骷髅花纹的狗</t>
+  </si>
+  <si>
+    <t>粉红章鱼</t>
+  </si>
+  <si>
+    <t>来自深海的味道</t>
+  </si>
+  <si>
+    <t>嘻嘻熊</t>
+  </si>
+  <si>
+    <t>脸上笑嘻嘻</t>
+  </si>
+  <si>
+    <t>异变蚂蚁</t>
+  </si>
+  <si>
+    <t>秃然变大的蚂蚁</t>
+  </si>
+  <si>
+    <t>独眼巨人</t>
+  </si>
+  <si>
+    <t>力大无穷</t>
+  </si>
+  <si>
+    <t>坐山雕</t>
+  </si>
+  <si>
+    <t>坐在山上的雕</t>
+  </si>
+  <si>
+    <t>大鳄鱼</t>
+  </si>
+  <si>
+    <t>一种鳄鱼</t>
+  </si>
+  <si>
+    <t>烈焰狼</t>
+  </si>
+  <si>
+    <t>被火焰包裹的狼</t>
+  </si>
+  <si>
+    <t>诅咒之狼</t>
+  </si>
+  <si>
+    <t>被诅咒吞噬的狼</t>
+  </si>
+  <si>
+    <t>巨眼鸟</t>
+  </si>
+  <si>
+    <t>眼睛很大的鸟</t>
+  </si>
+  <si>
+    <t>虚无球</t>
+  </si>
+  <si>
+    <t>一个被诅咒之后的生物</t>
+  </si>
+  <si>
+    <t>岩石球</t>
+  </si>
+  <si>
+    <t>一个被岩石包裹的生物</t>
+  </si>
+  <si>
+    <t>超绝</t>
+  </si>
+  <si>
+    <t>雷电的化生</t>
+  </si>
+  <si>
+    <t>埃及舞者</t>
+  </si>
+  <si>
+    <t>被做成了木乃伊</t>
+  </si>
+  <si>
+    <t>星光灿烂</t>
+  </si>
+  <si>
+    <t>受到祝福的猪</t>
+  </si>
+  <si>
+    <t>白魂</t>
+  </si>
+  <si>
+    <t>魂的一种</t>
+  </si>
+  <si>
+    <t>黑魂</t>
+  </si>
+  <si>
+    <t>绿魂</t>
+  </si>
+  <si>
+    <t>开罗人</t>
+  </si>
+  <si>
+    <t>一个开罗君雕像</t>
+  </si>
+  <si>
+    <t>禁忌之钟</t>
+  </si>
+  <si>
+    <t>古老的时钟</t>
+  </si>
+  <si>
+    <t>变色蝙蝠</t>
+  </si>
+  <si>
+    <t>跟随环境变换颜色的蝙蝠</t>
+  </si>
+  <si>
+    <t>猪小弟</t>
+  </si>
+  <si>
+    <t>猪人</t>
+  </si>
+  <si>
+    <t>雪怪</t>
+  </si>
+  <si>
+    <t>融化之后不知道是什么样子</t>
+  </si>
+  <si>
+    <t>龙</t>
+  </si>
+  <si>
+    <t>未知</t>
+  </si>
+  <si>
+    <t>幽灵长老</t>
+  </si>
+  <si>
+    <t>一个大幽灵</t>
+  </si>
+  <si>
+    <t>铜人</t>
+  </si>
+  <si>
+    <t>身上涂满了屎黄色的染料</t>
+  </si>
+  <si>
+    <t>剑术猫猫</t>
+  </si>
+  <si>
+    <t>会使用剑的猫猫</t>
+  </si>
+  <si>
+    <t>野狼</t>
+  </si>
+  <si>
+    <t>野外的狼，双眼发红</t>
+  </si>
+  <si>
+    <t>hp#number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spd#number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;使用冰的魔法，会让敌人&lt;color=#3AFFF3&gt;减速&lt;/color&gt;。
+当怪物涌入时会起到不错的效果。&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;可以加快周围角色的&lt;color=#3AFFF3&gt;攻击速度&lt;/color&gt;。
+进行快速快速更快速的攻击吧！&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;唱歌时全员将进入&lt;color=#3AFFF3&gt;超高速加速模式！&lt;/color&gt;。
+攻击速度会变得非常非常快！&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;随机向敌人发射猫猫炸弹。
+&lt;color=#3AFFF3&gt;星级越高，范围越大！&lt;/color&gt;。&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;使用风的角色，随机攻击敌人
+可以强力攻击燃烧的敌人
+除掉燃烧的敌人会引发&lt;color=#3AFFF3&gt;爆炸&lt;/color&gt;。&lt;/c&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1225,7 +1464,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1407,7 +1646,7 @@
         <v>145</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -1416,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>152</v>
+        <v>245</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1436,7 +1675,7 @@
         <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -1445,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1474,7 +1713,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="I8">
         <v>5</v>
@@ -1503,7 +1742,7 @@
         <v>1.4</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1532,7 +1771,7 @@
         <v>1.4</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1561,7 +1800,7 @@
         <v>1.4</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>158</v>
+        <v>244</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1590,7 +1829,7 @@
         <v>99999999</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1619,7 +1858,7 @@
         <v>1.2</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>160</v>
+        <v>246</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1648,7 +1887,7 @@
         <v>1.2</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1677,7 +1916,7 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1735,7 +1974,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1764,7 +2003,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1793,7 +2032,7 @@
         <v>1.2</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1822,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>162</v>
+        <v>247</v>
       </c>
       <c r="I20">
         <v>3</v>
@@ -1851,7 +2090,7 @@
         <v>1.5</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I21">
         <v>4</v>
@@ -1880,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1909,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1932,6 +2171,556 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB99EFAB-B000-4606-B7FA-03D380BA5ABF}">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" t="s">
+        <v>203</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" t="s">
+        <v>205</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>208</v>
+      </c>
+      <c r="D21" t="s">
+        <v>209</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" t="s">
+        <v>211</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" t="s">
+        <v>213</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" t="s">
+        <v>215</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" t="s">
+        <v>217</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>218</v>
+      </c>
+      <c r="D26" t="s">
+        <v>217</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>219</v>
+      </c>
+      <c r="D27" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" t="s">
+        <v>221</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>222</v>
+      </c>
+      <c r="D29" t="s">
+        <v>223</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>224</v>
+      </c>
+      <c r="D30" t="s">
+        <v>225</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>226</v>
+      </c>
+      <c r="D31" t="s">
+        <v>227</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D32" t="s">
+        <v>229</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>230</v>
+      </c>
+      <c r="D33" t="s">
+        <v>231</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>232</v>
+      </c>
+      <c r="D34" t="s">
+        <v>233</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>234</v>
+      </c>
+      <c r="D35" t="s">
+        <v>235</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" t="s">
+        <v>237</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>238</v>
+      </c>
+      <c r="D37" t="s">
+        <v>239</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1917D1-1E80-49DA-BCD2-DF0A5B07018B}">
   <dimension ref="A1:G23"/>
   <sheetViews>
@@ -2483,7 +3272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6983423-C835-4E57-BDD0-3AAA7B61ADEF}">
   <dimension ref="A1:C8"/>
   <sheetViews>

--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1948B897-9C5B-4341-BADD-132987029C4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44073BB6-B27D-4714-9813-15D7C6B48031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
     <sheet name="monster" sheetId="4" r:id="rId2"/>
-    <sheet name="skill" sheetId="2" r:id="rId3"/>
-    <sheet name="buff" sheetId="3" r:id="rId4"/>
+    <sheet name="area" sheetId="5" r:id="rId3"/>
+    <sheet name="skill" sheetId="2" r:id="rId4"/>
+    <sheet name="buff" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="306">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -802,9 +803,6 @@
     <t>生活在水里的史莱姆</t>
   </si>
   <si>
-    <t>迷途的老鼠</t>
-  </si>
-  <si>
     <t>离家出走的老鼠</t>
   </si>
   <si>
@@ -812,12 +810,6 @@
   </si>
   <si>
     <t>可以自由活动的植物</t>
-  </si>
-  <si>
-    <t>堕魂狼</t>
-  </si>
-  <si>
-    <t>变成了魔物的一匹狼</t>
   </si>
   <si>
     <t>骷髅狗</t>
@@ -1021,6 +1013,246 @@
     <t>&lt;color=#412900&gt;使用风的角色，随机攻击敌人
 可以强力攻击燃烧的敌人
 除掉燃烧的敌人会引发&lt;color=#3AFFF3&gt;爆炸&lt;/color&gt;。&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老鼠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤小怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆地最强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能会将所有角色随机变换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机将角色升星或者降星并变换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillDec#string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBoss#bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monsters#[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野外森林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg#number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茫茫沙漠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难度加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diff#number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青青草原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚁冢荒地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夕阳荒原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艳阳海滩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下洞窟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上古遗迹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱葬岗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西部地带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨木林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>森山野林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒郊野岭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东部雪原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩地带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐田野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无人之境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月黑风高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,10,11,6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[11,5,13,12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4,9,13,6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[25,17,19,31]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10,17,23,21]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8,16,26,12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[34,7,5,12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,16,29,6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4,20,22,6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2,15,27,18]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,14,24,32]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,26,8,12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[29,5,16,12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,5,7,6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7,33,11,21]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[13,29,30,12]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20,23,24,32]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5,28,23,18]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[36,14,28,6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[17,35,34,18]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type:2,num:0.2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷巨石，使勇者眩晕,无法攻击无法移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己给自己加血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物分布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1028,7 +1260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1098,6 +1330,22 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1121,7 +1369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1144,6 +1392,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1462,7 +1716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D0E652-86CF-433A-BD6F-177C0A6FDF59}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
@@ -1655,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1713,7 +1967,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I8">
         <v>5</v>
@@ -1800,7 +2054,7 @@
         <v>1.4</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1858,7 +2112,7 @@
         <v>1.2</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -2061,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I20">
         <v>3</v>
@@ -2172,10 +2426,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB99EFAB-B000-4606-B7FA-03D380BA5ABF}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2184,9 +2438,11 @@
     <col min="3" max="3" width="13.875" customWidth="1"/>
     <col min="4" max="4" width="23.75" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="44.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>166</v>
       </c>
@@ -2194,16 +2450,22 @@
         <v>167</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D1" t="s">
         <v>168</v>
       </c>
       <c r="E1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+      <c r="F1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>169</v>
       </c>
@@ -2211,22 +2473,31 @@
         <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D2" t="s">
         <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+      <c r="F2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>172</v>
       </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
       <c r="D3" t="s">
         <v>173</v>
       </c>
@@ -2234,13 +2505,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>174</v>
       </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
       <c r="D4" t="s">
         <v>175</v>
       </c>
@@ -2248,13 +2522,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>176</v>
       </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
       <c r="D5" t="s">
         <v>177</v>
       </c>
@@ -2262,13 +2539,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>178</v>
       </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
       <c r="D6" t="s">
         <v>179</v>
       </c>
@@ -2276,441 +2556,578 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
         <v>180</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>235</v>
+      </c>
+      <c r="C9">
+        <v>400</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>236</v>
       </c>
       <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>183</v>
+      </c>
+      <c r="C10">
+        <v>600</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>185</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>187</v>
+      </c>
+      <c r="C12">
+        <v>300</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C13">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>193</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" t="s">
-        <v>195</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="F14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>196</v>
+        <v>193</v>
+      </c>
+      <c r="C15">
+        <v>300</v>
       </c>
       <c r="D15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>195</v>
+      </c>
+      <c r="C16">
+        <v>500</v>
       </c>
       <c r="D16" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>197</v>
+      </c>
+      <c r="C17">
+        <v>800</v>
       </c>
       <c r="D17" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>199</v>
+      </c>
+      <c r="C18">
+        <v>1000</v>
       </c>
       <c r="D18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19">
+        <v>1000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D19" t="s">
-        <v>205</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D20" t="s">
-        <v>207</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>205</v>
+      </c>
+      <c r="C21">
+        <v>1000</v>
       </c>
       <c r="D21" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+      <c r="D22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D23" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D22" t="s">
-        <v>211</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>212</v>
-      </c>
-      <c r="D23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F23" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>214</v>
+        <v>211</v>
+      </c>
+      <c r="C24">
+        <v>300</v>
       </c>
       <c r="D24" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>216</v>
+        <v>213</v>
+      </c>
+      <c r="C25">
+        <v>200</v>
       </c>
       <c r="D25" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>218</v>
+        <v>215</v>
+      </c>
+      <c r="C26">
+        <v>800</v>
       </c>
       <c r="D26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>219</v>
+        <v>216</v>
+      </c>
+      <c r="C27">
+        <v>1000</v>
       </c>
       <c r="D27" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>220</v>
+        <v>217</v>
+      </c>
+      <c r="C28">
+        <v>600</v>
       </c>
       <c r="D28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>222</v>
+        <v>219</v>
+      </c>
+      <c r="C29">
+        <v>800</v>
       </c>
       <c r="D29" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>224</v>
+        <v>221</v>
+      </c>
+      <c r="C30">
+        <v>300</v>
       </c>
       <c r="D30" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>226</v>
+        <v>223</v>
+      </c>
+      <c r="C31">
+        <v>500</v>
       </c>
       <c r="D31" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32">
+        <v>500</v>
+      </c>
+      <c r="D32" t="s">
+        <v>226</v>
+      </c>
+      <c r="E32">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
+        <v>31</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="9">
+        <v>10000</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E33" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <v>32</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="C34" s="9">
+        <v>5000</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="D33" t="s">
-        <v>231</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>232</v>
-      </c>
-      <c r="D34" t="s">
-        <v>233</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E34" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="F34" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>234</v>
+        <v>231</v>
+      </c>
+      <c r="C35">
+        <v>800</v>
       </c>
       <c r="D35" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>236</v>
+        <v>233</v>
+      </c>
+      <c r="C36">
+        <v>900</v>
       </c>
       <c r="D36" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>238</v>
-      </c>
-      <c r="D37" t="s">
-        <v>239</v>
+        <v>293</v>
+      </c>
+      <c r="C37">
+        <v>200</v>
       </c>
       <c r="E37">
         <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>297</v>
+      </c>
+      <c r="C38">
+        <v>50</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2721,12 +3138,407 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A017588-98F4-4FD4-A257-5EBE77D6705F}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C12" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>300</v>
+      </c>
+      <c r="C13" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>287</v>
+      </c>
+      <c r="C15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" t="s">
+        <v>273</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>296</v>
+      </c>
+      <c r="C17" t="s">
+        <v>274</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" t="s">
+        <v>275</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C20" t="s">
+        <v>277</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>290</v>
+      </c>
+      <c r="C21" t="s">
+        <v>278</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>298</v>
+      </c>
+      <c r="C22" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1917D1-1E80-49DA-BCD2-DF0A5B07018B}">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3127,7 +3939,7 @@
         <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>133</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -3272,7 +4084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6983423-C835-4E57-BDD0-3AAA7B61ADEF}">
   <dimension ref="A1:C8"/>
   <sheetViews>

--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44073BB6-B27D-4714-9813-15D7C6B48031}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AADBBE5-8A40-4005-90F7-AAA4E252CDC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
+    <workbookView xWindow="29085" yWindow="-1320" windowWidth="21570" windowHeight="15660" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="308">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1244,15 +1244,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>投掷巨石，使勇者眩晕,无法攻击无法移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自己给自己加血</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>怪物分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷巨石,使勇者眩晕,无法攻击无法移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect#[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特效 攻击 和施法 投掷物粒子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1714,28 +1722,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D0E652-86CF-433A-BD6F-177C0A6FDF59}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1"/>
-    <col min="2" max="2" width="5.625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="79.5" customWidth="1"/>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="3.5" customWidth="1"/>
+    <col min="3" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="5.5" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="72" customWidth="1"/>
     <col min="8" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="6.375" customWidth="1"/>
-    <col min="10" max="10" width="66.5" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="6.375" customWidth="1"/>
+    <col min="11" max="11" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1761,13 +1769,16 @@
         <v>105</v>
       </c>
       <c r="I1" t="s">
+        <v>307</v>
+      </c>
+      <c r="J1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1793,13 +1804,16 @@
         <v>106</v>
       </c>
       <c r="I2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1821,14 +1835,14 @@
       <c r="G3" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1853,14 +1867,14 @@
       <c r="H4" t="s">
         <v>107</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1882,14 +1896,14 @@
       <c r="G5" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1911,14 +1925,14 @@
       <c r="G6" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1940,14 +1954,14 @@
       <c r="G7" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1969,14 +1983,14 @@
       <c r="G8" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1998,14 +2012,14 @@
       <c r="G9" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2027,14 +2041,14 @@
       <c r="G10" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2056,14 +2070,14 @@
       <c r="G11" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2085,14 +2099,14 @@
       <c r="G12" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2114,14 +2128,14 @@
       <c r="G13" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2143,14 +2157,14 @@
       <c r="G14" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2172,14 +2186,14 @@
       <c r="G15" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="K15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2201,14 +2215,14 @@
       <c r="G16" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2230,14 +2244,14 @@
       <c r="G17" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2259,14 +2273,14 @@
       <c r="G18" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" s="4" t="s">
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2288,14 +2302,14 @@
       <c r="G19" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2317,14 +2331,14 @@
       <c r="G20" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>3</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2346,14 +2360,14 @@
       <c r="G21" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>4</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2375,14 +2389,14 @@
       <c r="G22" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2404,17 +2418,17 @@
       <c r="G23" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G25" s="6"/>
     </row>
   </sheetData>
@@ -2429,7 +2443,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2593,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2701,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3141,7 +3155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A017588-98F4-4FD4-A257-5EBE77D6705F}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -3156,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>

--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AADBBE5-8A40-4005-90F7-AAA4E252CDC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B485D3-A274-40CB-B971-0D1325ADE39F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29085" yWindow="-1320" windowWidth="21570" windowHeight="15660" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
+    <workbookView xWindow="28860" yWindow="-600" windowWidth="21570" windowHeight="15660" activeTab="3" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="316">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1261,6 +1261,38 @@
   </si>
   <si>
     <t>特效 攻击 和施法 投掷物粒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgName#string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>death</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1724,7 +1756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D0E652-86CF-433A-BD6F-177C0A6FDF59}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
@@ -3548,24 +3580,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1917D1-1E80-49DA-BCD2-DF0A5B07018B}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="52.5" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="31.75" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="16.25" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="8" max="8" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -3576,19 +3609,22 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3599,19 +3635,22 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3621,20 +3660,23 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="E3" t="b">
+      <c r="F3" t="b">
         <v>0</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3644,20 +3686,23 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="E4" t="b">
+      <c r="F4" t="b">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3667,20 +3712,23 @@
       <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5">
         <v>40</v>
       </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3690,20 +3738,23 @@
       <c r="C6" t="s">
         <v>57</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E6">
         <v>0</v>
       </c>
-      <c r="E6" t="b">
+      <c r="F6" t="b">
         <v>0</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3713,20 +3764,23 @@
       <c r="C7" t="s">
         <v>58</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E7">
         <v>0</v>
       </c>
-      <c r="E7" t="b">
+      <c r="F7" t="b">
         <v>0</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3736,20 +3790,23 @@
       <c r="C8" t="s">
         <v>87</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E8">
         <v>0</v>
       </c>
-      <c r="E8" t="b">
+      <c r="F8" t="b">
         <v>0</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>8</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3759,20 +3816,23 @@
       <c r="C9" t="s">
         <v>88</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>312</v>
+      </c>
+      <c r="E9">
         <v>0</v>
       </c>
-      <c r="E9" t="b">
+      <c r="F9" t="b">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3782,20 +3842,23 @@
       <c r="C10" t="s">
         <v>89</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="s">
+        <v>314</v>
+      </c>
+      <c r="E10">
         <v>0</v>
       </c>
-      <c r="E10" t="b">
+      <c r="F10" t="b">
         <v>0</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>9</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3805,20 +3868,23 @@
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E11">
         <v>0</v>
       </c>
-      <c r="E11" t="b">
+      <c r="F11" t="b">
         <v>0</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>3</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3828,20 +3894,23 @@
       <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>314</v>
+      </c>
+      <c r="E12">
         <v>0</v>
       </c>
-      <c r="E12" t="b">
+      <c r="F12" t="b">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>4</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3851,20 +3920,23 @@
       <c r="C13" t="s">
         <v>92</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>311</v>
+      </c>
+      <c r="E13">
         <v>40</v>
       </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>3</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3874,20 +3946,23 @@
       <c r="C14" t="s">
         <v>100</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="s">
+        <v>315</v>
+      </c>
+      <c r="E14">
         <v>0</v>
       </c>
-      <c r="E14" t="b">
+      <c r="F14" t="b">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3897,20 +3972,23 @@
       <c r="C15" t="s">
         <v>96</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="s">
+        <v>315</v>
+      </c>
+      <c r="E15">
         <v>0</v>
       </c>
-      <c r="E15" t="b">
+      <c r="F15" t="b">
         <v>0</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>12</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3920,20 +3998,23 @@
       <c r="C16" t="s">
         <v>99</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="s">
+        <v>313</v>
+      </c>
+      <c r="E16">
         <v>0</v>
       </c>
-      <c r="E16" t="b">
+      <c r="F16" t="b">
         <v>0</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>7</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3943,20 +4024,23 @@
       <c r="C17" t="s">
         <v>98</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17">
         <v>0</v>
       </c>
-      <c r="E17" t="b">
+      <c r="F17" t="b">
         <v>0</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>13</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3966,20 +4050,23 @@
       <c r="C18" t="s">
         <v>102</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>310</v>
+      </c>
+      <c r="E18">
         <v>0</v>
       </c>
-      <c r="E18" t="b">
+      <c r="F18" t="b">
         <v>0</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>3</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3989,20 +4076,23 @@
       <c r="C19" t="s">
         <v>115</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>310</v>
+      </c>
+      <c r="E19">
         <v>0</v>
       </c>
-      <c r="E19" t="b">
+      <c r="F19" t="b">
         <v>0</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>6</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4012,20 +4102,23 @@
       <c r="C20" t="s">
         <v>109</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>312</v>
+      </c>
+      <c r="E20">
         <v>0</v>
       </c>
-      <c r="E20" t="b">
+      <c r="F20" t="b">
         <v>0</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4035,17 +4128,20 @@
       <c r="C21" t="s">
         <v>129</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="s">
+        <v>310</v>
+      </c>
+      <c r="E21">
         <v>0</v>
       </c>
-      <c r="E21" t="b">
+      <c r="F21" t="b">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4055,20 +4151,23 @@
       <c r="C22" t="s">
         <v>121</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="s">
+        <v>314</v>
+      </c>
+      <c r="E22">
         <v>10</v>
       </c>
-      <c r="E22" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22">
+      <c r="F22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22">
         <v>10</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4078,16 +4177,19 @@
       <c r="C23" t="s">
         <v>130</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="s">
+        <v>315</v>
+      </c>
+      <c r="E23">
         <v>0</v>
       </c>
-      <c r="E23" t="b">
+      <c r="F23" t="b">
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>14</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>134</v>
       </c>
     </row>

--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B485D3-A274-40CB-B971-0D1325ADE39F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7FADD5-045F-4E78-8BF8-63CDB5BFAECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="-600" windowWidth="21570" windowHeight="15660" activeTab="3" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
+    <workbookView xWindow="28545" yWindow="-495" windowWidth="21570" windowHeight="15660" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="335">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1293,6 +1293,82 @@
   </si>
   <si>
     <t>death</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[25,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[24,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[12,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[16,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,23,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[26,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[14,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[17,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[15,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[27,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[18,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8,0,0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1756,9 +1832,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D0E652-86CF-433A-BD6F-177C0A6FDF59}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1867,6 +1943,9 @@
       <c r="G3" s="6" t="s">
         <v>138</v>
       </c>
+      <c r="I3" t="s">
+        <v>322</v>
+      </c>
       <c r="J3">
         <v>1</v>
       </c>
@@ -1899,6 +1978,9 @@
       <c r="H4" t="s">
         <v>107</v>
       </c>
+      <c r="I4" t="s">
+        <v>317</v>
+      </c>
       <c r="J4">
         <v>2</v>
       </c>
@@ -1928,6 +2010,9 @@
       <c r="G5" s="6" t="s">
         <v>151</v>
       </c>
+      <c r="I5" t="s">
+        <v>318</v>
+      </c>
       <c r="J5">
         <v>6</v>
       </c>
@@ -1957,6 +2042,9 @@
       <c r="G6" s="6" t="s">
         <v>242</v>
       </c>
+      <c r="I6" t="s">
+        <v>319</v>
+      </c>
       <c r="J6">
         <v>1</v>
       </c>
@@ -1986,6 +2074,9 @@
       <c r="G7" s="6" t="s">
         <v>152</v>
       </c>
+      <c r="I7" t="s">
+        <v>320</v>
+      </c>
       <c r="J7">
         <v>1</v>
       </c>
@@ -2015,6 +2106,9 @@
       <c r="G8" s="6" t="s">
         <v>245</v>
       </c>
+      <c r="I8" t="s">
+        <v>321</v>
+      </c>
       <c r="J8">
         <v>6</v>
       </c>
@@ -2044,6 +2138,9 @@
       <c r="G9" s="6" t="s">
         <v>155</v>
       </c>
+      <c r="I9" t="s">
+        <v>316</v>
+      </c>
       <c r="J9">
         <v>1</v>
       </c>
@@ -2073,6 +2170,9 @@
       <c r="G10" s="6" t="s">
         <v>161</v>
       </c>
+      <c r="I10" t="s">
+        <v>323</v>
+      </c>
       <c r="J10">
         <v>1</v>
       </c>
@@ -2102,6 +2202,9 @@
       <c r="G11" s="6" t="s">
         <v>241</v>
       </c>
+      <c r="I11" t="s">
+        <v>326</v>
+      </c>
       <c r="J11">
         <v>1</v>
       </c>
@@ -2131,6 +2234,9 @@
       <c r="G12" s="6" t="s">
         <v>156</v>
       </c>
+      <c r="I12" t="s">
+        <v>325</v>
+      </c>
       <c r="J12">
         <v>0</v>
       </c>
@@ -2160,6 +2266,9 @@
       <c r="G13" s="6" t="s">
         <v>243</v>
       </c>
+      <c r="I13" t="s">
+        <v>324</v>
+      </c>
       <c r="J13">
         <v>1</v>
       </c>
@@ -2189,6 +2298,9 @@
       <c r="G14" s="6" t="s">
         <v>165</v>
       </c>
+      <c r="I14" t="s">
+        <v>327</v>
+      </c>
       <c r="J14">
         <v>6</v>
       </c>
@@ -2218,6 +2330,9 @@
       <c r="G15" s="6" t="s">
         <v>153</v>
       </c>
+      <c r="I15" t="s">
+        <v>328</v>
+      </c>
       <c r="J15">
         <v>6</v>
       </c>
@@ -2247,6 +2362,9 @@
       <c r="G16" s="6" t="s">
         <v>137</v>
       </c>
+      <c r="I16" t="s">
+        <v>329</v>
+      </c>
       <c r="J16">
         <v>6</v>
       </c>
@@ -2276,6 +2394,9 @@
       <c r="G17" s="6" t="s">
         <v>160</v>
       </c>
+      <c r="I17" t="s">
+        <v>330</v>
+      </c>
       <c r="J17">
         <v>6</v>
       </c>
@@ -2305,6 +2426,9 @@
       <c r="G18" s="6" t="s">
         <v>157</v>
       </c>
+      <c r="I18" t="s">
+        <v>329</v>
+      </c>
       <c r="J18">
         <v>1</v>
       </c>
@@ -2334,6 +2458,9 @@
       <c r="G19" s="6" t="s">
         <v>154</v>
       </c>
+      <c r="I19" t="s">
+        <v>331</v>
+      </c>
       <c r="J19">
         <v>1</v>
       </c>
@@ -2363,6 +2490,9 @@
       <c r="G20" s="6" t="s">
         <v>244</v>
       </c>
+      <c r="I20" t="s">
+        <v>332</v>
+      </c>
       <c r="J20">
         <v>3</v>
       </c>
@@ -2392,6 +2522,9 @@
       <c r="G21" s="6" t="s">
         <v>158</v>
       </c>
+      <c r="I21" t="s">
+        <v>333</v>
+      </c>
       <c r="J21">
         <v>4</v>
       </c>
@@ -2421,6 +2554,9 @@
       <c r="G22" s="6" t="s">
         <v>159</v>
       </c>
+      <c r="I22" t="s">
+        <v>329</v>
+      </c>
       <c r="J22">
         <v>1</v>
       </c>
@@ -2449,6 +2585,9 @@
       </c>
       <c r="G23" s="6" t="s">
         <v>162</v>
+      </c>
+      <c r="I23" t="s">
+        <v>334</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -3582,7 +3721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1917D1-1E80-49DA-BCD2-DF0A5B07018B}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>

--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7FADD5-045F-4E78-8BF8-63CDB5BFAECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73782C13-233E-4A50-ABA0-8445C24904FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28545" yWindow="-495" windowWidth="21570" windowHeight="15660" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
+    <workbookView xWindow="29610" yWindow="6645" windowWidth="21570" windowHeight="14790" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -607,10 +607,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{num:2.5,add:0.3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{str:'damage',num:50,add:10}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1369,6 +1365,10 @@
   </si>
   <si>
     <t>[8,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{num:1.5,add:0.4}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1833,17 +1833,17 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="4.375" customWidth="1"/>
     <col min="3" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="72" customWidth="1"/>
     <col min="8" max="8" width="8.875" customWidth="1"/>
     <col min="9" max="9" width="24.5" customWidth="1"/>
@@ -1856,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1877,7 +1877,7 @@
         <v>105</v>
       </c>
       <c r="I1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J1" t="s">
         <v>27</v>
@@ -1891,10 +1891,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1912,7 +1912,7 @@
         <v>106</v>
       </c>
       <c r="I2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J2" t="s">
         <v>26</v>
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1941,10 +1941,10 @@
         <v>0.8</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1958,10 +1958,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1973,13 +1973,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H4" t="s">
         <v>107</v>
       </c>
       <c r="I4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -1996,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -2008,10 +2008,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J5">
         <v>6</v>
@@ -2028,10 +2028,10 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -2040,10 +2040,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -2060,10 +2060,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -2072,10 +2072,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -2092,7 +2092,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D8" t="s">
         <v>45</v>
@@ -2104,10 +2104,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J8">
         <v>6</v>
@@ -2124,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D9" t="s">
         <v>46</v>
@@ -2136,10 +2136,10 @@
         <v>1.4</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -2153,10 +2153,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
         <v>47</v>
@@ -2168,10 +2168,10 @@
         <v>1.4</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -2188,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
         <v>41</v>
@@ -2200,10 +2200,10 @@
         <v>1.4</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -2220,7 +2220,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" t="s">
         <v>48</v>
@@ -2232,10 +2232,10 @@
         <v>99999999</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D13" t="s">
         <v>49</v>
@@ -2264,10 +2264,10 @@
         <v>1.2</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -2284,7 +2284,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
         <v>42</v>
@@ -2296,10 +2296,10 @@
         <v>1.2</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
         <v>50</v>
@@ -2328,10 +2328,10 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D16" t="s">
         <v>51</v>
@@ -2360,10 +2360,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J16">
         <v>6</v>
@@ -2380,7 +2380,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
         <v>54</v>
@@ -2392,10 +2392,10 @@
         <v>2</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J17">
         <v>6</v>
@@ -2412,7 +2412,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s">
         <v>65</v>
@@ -2424,10 +2424,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -2444,7 +2444,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19" t="s">
         <v>78</v>
@@ -2456,10 +2456,10 @@
         <v>1.2</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2476,7 +2476,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
         <v>82</v>
@@ -2488,10 +2488,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I20" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J20">
         <v>3</v>
@@ -2508,7 +2508,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D21" t="s">
         <v>66</v>
@@ -2520,10 +2520,10 @@
         <v>1.5</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -2537,10 +2537,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D22" t="s">
         <v>77</v>
@@ -2552,10 +2552,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I22" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -2572,7 +2572,7 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
         <v>76</v>
@@ -2584,10 +2584,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2629,48 +2629,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" t="s">
         <v>166</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" t="s">
         <v>167</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>238</v>
       </c>
-      <c r="D1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E1" t="s">
-        <v>239</v>
-      </c>
       <c r="F1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
         <v>169</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" t="s">
         <v>170</v>
       </c>
-      <c r="C2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D2" t="s">
-        <v>171</v>
-      </c>
       <c r="E2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -2678,13 +2678,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2695,13 +2695,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4">
         <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2712,13 +2712,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5">
         <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2729,13 +2729,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C6">
         <v>400</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2746,13 +2746,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C7">
         <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -2763,13 +2763,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="9">
         <v>1000</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E8" s="9">
         <v>0.5</v>
@@ -2778,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -2786,13 +2786,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C9">
         <v>400</v>
       </c>
       <c r="D9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E9">
         <v>2.5</v>
@@ -2803,13 +2803,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C10">
         <v>600</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E10">
         <v>1.2</v>
@@ -2820,13 +2820,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11">
         <v>200</v>
       </c>
       <c r="D11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2837,13 +2837,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C12">
         <v>300</v>
       </c>
       <c r="D12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E12">
         <v>0.8</v>
@@ -2854,13 +2854,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C13">
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -2871,13 +2871,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C14" s="9">
         <v>2000</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E14" s="9">
         <v>0.4</v>
@@ -2886,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2894,13 +2894,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C15">
         <v>300</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E15">
         <v>1.5</v>
@@ -2911,13 +2911,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C16">
         <v>500</v>
       </c>
       <c r="D16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E16">
         <v>0.8</v>
@@ -2928,13 +2928,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C17">
         <v>800</v>
       </c>
       <c r="D17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -2945,13 +2945,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C18">
         <v>1000</v>
       </c>
       <c r="D18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E18">
         <v>1.8</v>
@@ -2962,13 +2962,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C19">
         <v>1000</v>
       </c>
       <c r="D19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -2979,13 +2979,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" s="9">
         <v>3000</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E20" s="9">
         <v>1</v>
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -3002,13 +3002,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C21">
         <v>1000</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E21">
         <v>0.2</v>
@@ -3019,13 +3019,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C22">
         <v>500</v>
       </c>
       <c r="D22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -3036,13 +3036,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C23" s="9">
         <v>2000</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E23" s="9">
         <v>0.8</v>
@@ -3051,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -3059,13 +3059,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C24">
         <v>300</v>
       </c>
       <c r="D24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -3076,13 +3076,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C25">
         <v>200</v>
       </c>
       <c r="D25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -3093,13 +3093,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C26">
         <v>800</v>
       </c>
       <c r="D26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -3110,13 +3110,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C27">
         <v>1000</v>
       </c>
       <c r="D27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -3127,13 +3127,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C28">
         <v>600</v>
       </c>
       <c r="D28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E28">
         <v>0.2</v>
@@ -3144,13 +3144,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C29">
         <v>800</v>
       </c>
       <c r="D29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E29">
         <v>0.3</v>
@@ -3161,13 +3161,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C30">
         <v>300</v>
       </c>
       <c r="D30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E30">
         <v>1.9</v>
@@ -3178,13 +3178,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C31">
         <v>500</v>
       </c>
       <c r="D31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3195,13 +3195,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32">
         <v>500</v>
       </c>
       <c r="D32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E32">
         <v>0.8</v>
@@ -3212,13 +3212,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C33" s="9">
         <v>10000</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E33" s="9">
         <v>0.5</v>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -3235,13 +3235,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C34" s="9">
         <v>5000</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E34" s="9">
         <v>0.6</v>
@@ -3250,7 +3250,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -3258,13 +3258,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C35">
         <v>800</v>
       </c>
       <c r="D35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E35">
         <v>0.9</v>
@@ -3275,13 +3275,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C36">
         <v>900</v>
       </c>
       <c r="D36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3292,7 +3292,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C37">
         <v>200</v>
@@ -3306,7 +3306,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C38">
         <v>50</v>
@@ -3327,7 +3327,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3341,16 +3341,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3358,16 +3358,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3375,10 +3375,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3392,13 +3392,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -3409,13 +3409,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -3426,13 +3426,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -3443,13 +3443,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -3460,13 +3460,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>6</v>
@@ -3477,13 +3477,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -3494,13 +3494,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -3511,13 +3511,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -3528,13 +3528,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E12">
         <v>10</v>
@@ -3545,13 +3545,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>11</v>
@@ -3562,13 +3562,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>12</v>
@@ -3579,13 +3579,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>13</v>
@@ -3596,13 +3596,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>14</v>
@@ -3613,13 +3613,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C17" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>15</v>
@@ -3630,13 +3630,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>16</v>
@@ -3647,13 +3647,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>17</v>
@@ -3664,13 +3664,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>18</v>
@@ -3681,13 +3681,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>19</v>
@@ -3698,13 +3698,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>20</v>
@@ -3723,7 +3723,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3748,7 +3748,7 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E1" t="s">
         <v>37</v>
@@ -3774,7 +3774,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
@@ -3800,7 +3800,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3826,7 +3826,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3852,7 +3852,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -3878,7 +3878,7 @@
         <v>57</v>
       </c>
       <c r="D6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3930,7 +3930,7 @@
         <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3956,7 +3956,7 @@
         <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4060,7 +4060,7 @@
         <v>92</v>
       </c>
       <c r="D13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E13">
         <v>40</v>
@@ -4086,7 +4086,7 @@
         <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>131</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -4112,7 +4112,7 @@
         <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>131</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -4138,7 +4138,7 @@
         <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -4164,7 +4164,7 @@
         <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4176,7 +4176,7 @@
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -4190,7 +4190,7 @@
         <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4216,7 +4216,7 @@
         <v>115</v>
       </c>
       <c r="D19" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4242,7 +4242,7 @@
         <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4268,7 +4268,7 @@
         <v>129</v>
       </c>
       <c r="D21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4291,7 +4291,7 @@
         <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -4317,7 +4317,7 @@
         <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4329,7 +4329,7 @@
         <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -4406,7 +4406,7 @@
         <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4439,7 +4439,7 @@
         <v>123</v>
       </c>
       <c r="C8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73782C13-233E-4A50-ABA0-8445C24904FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FADD29-60E5-4479-9A4D-27EBBA67D332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="6645" windowWidth="21570" windowHeight="14790" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
+    <workbookView xWindow="5505" yWindow="600" windowWidth="21570" windowHeight="14790" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -1833,8 +1833,8 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2025,7 +2025,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>144</v>

--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FADD29-60E5-4479-9A4D-27EBBA67D332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82357A5A-E0B3-4F5E-AAAD-8EFD8A0272B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5505" yWindow="600" windowWidth="21570" windowHeight="14790" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="341">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1369,6 +1369,30 @@
   </si>
   <si>
     <t>{num:1.5,add:0.4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>way#[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径x y 方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area#[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,0,0,0,0],[0,1,1,1,0],[0,1,1,1,0],[0,1,1,1,0],[0,1,1,1,0],[0,1,1,1,0]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[0,5,1],[0,0,4],[4,0,2],[4,5,0]]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1832,7 +1856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D0E652-86CF-433A-BD6F-177C0A6FDF59}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
@@ -3324,19 +3348,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A017588-98F4-4FD4-A257-5EBE77D6705F}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="30.25" customWidth="1"/>
+    <col min="7" max="7" width="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3352,8 +3379,14 @@
       <c r="E1" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3369,8 +3402,14 @@
       <c r="E2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3386,8 +3425,14 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3403,8 +3448,14 @@
       <c r="E4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3420,8 +3471,14 @@
       <c r="E5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3437,8 +3494,14 @@
       <c r="E6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3454,8 +3517,14 @@
       <c r="E7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3471,8 +3540,14 @@
       <c r="E8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>340</v>
+      </c>
+      <c r="G8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3488,8 +3563,14 @@
       <c r="E9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>340</v>
+      </c>
+      <c r="G9" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3505,8 +3586,14 @@
       <c r="E10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>340</v>
+      </c>
+      <c r="G10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3522,8 +3609,14 @@
       <c r="E11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>340</v>
+      </c>
+      <c r="G11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3539,8 +3632,14 @@
       <c r="E12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>340</v>
+      </c>
+      <c r="G12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3556,8 +3655,14 @@
       <c r="E13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>340</v>
+      </c>
+      <c r="G13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3573,8 +3678,14 @@
       <c r="E14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>340</v>
+      </c>
+      <c r="G14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3590,8 +3701,14 @@
       <c r="E15">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>340</v>
+      </c>
+      <c r="G15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3607,8 +3724,14 @@
       <c r="E16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>340</v>
+      </c>
+      <c r="G16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3624,8 +3747,14 @@
       <c r="E17">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>340</v>
+      </c>
+      <c r="G17" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3641,8 +3770,14 @@
       <c r="E18">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>340</v>
+      </c>
+      <c r="G18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3658,8 +3793,14 @@
       <c r="E19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>340</v>
+      </c>
+      <c r="G19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3675,8 +3816,14 @@
       <c r="E20">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>340</v>
+      </c>
+      <c r="G20" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3692,8 +3839,14 @@
       <c r="E21">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>340</v>
+      </c>
+      <c r="G21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3708,6 +3861,12 @@
       </c>
       <c r="E22">
         <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>340</v>
+      </c>
+      <c r="G22" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82357A5A-E0B3-4F5E-AAAD-8EFD8A0272B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77EBF61-E80B-4A91-B127-344C19D1F0B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="2" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
+    <workbookView xWindow="28845" yWindow="4785" windowWidth="21570" windowHeight="14790" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
-    <sheet name="monster" sheetId="4" r:id="rId2"/>
-    <sheet name="area" sheetId="5" r:id="rId3"/>
-    <sheet name="skill" sheetId="2" r:id="rId4"/>
-    <sheet name="buff" sheetId="3" r:id="rId5"/>
+    <sheet name="skill" sheetId="2" r:id="rId2"/>
+    <sheet name="buff" sheetId="3" r:id="rId3"/>
+    <sheet name="monster" sheetId="4" r:id="rId4"/>
+    <sheet name="area" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="395">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,14 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阳光小伙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>语录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,10 +212,6 @@
   </si>
   <si>
     <t>解说员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -748,10 +736,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>梦想家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#412900&gt;根据当前的名誉提高攻击力
 只要名誉足够，就可以非常强力&lt;/c&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1393,6 +1377,244 @@
   </si>
   <si>
     <t>[[[0,5,1],[0,0,4],[4,0,2],[4,5,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金骑士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海豹突稽队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花姑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛丽塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光头吴克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪盗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>船长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伯爵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶妈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诗人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富二代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赋予周围概率秒杀敌人的能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一击击杀怪物的时候，可以获得超多金币哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让我来看看到底是谁又掉血了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害翻倍，升星能增加暴击概率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;合成时会获得名誉
+星星越多获得的越多&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P90!Rush B!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[19,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[11,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[13,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机攻击敌人
+与不能合成的角色交换位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最喜欢打boss了
+对Boss造成多倍伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将角色替换为其他角色的技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金梦想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，合成时生成名誉，随星星的提升而提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，可以与他人交换位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，解除队友身上的负面效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS杀手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，对boss的伤害随着星星的提升而提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超威蓝猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷窃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，击杀敌人都会给全体吴克增加攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>death</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，击杀敌人时获得更多的名誉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，暴击伤害增加，暴击概率增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡之眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，赋予周围角色概率秒杀敌人的能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动技能，将指定角色替换为指定角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{num:60}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{num:100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{cold:10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{num:50,add:10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{buff:7,targetType:3,time:99999999}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{num:3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{str:'kill',num:1.5,add:0.4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以解除同伴身上的异常状态哦，
+星星越多解除的人数越多哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{damage:300,num:10,add:5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击敌后所有吴克都加一层buff
+一个吴克倒下了
+千千万万个吴克站起来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1854,11 +2076,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D0E652-86CF-433A-BD6F-177C0A6FDF59}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1871,7 +2093,7 @@
     <col min="7" max="7" width="72" customWidth="1"/>
     <col min="8" max="8" width="8.875" customWidth="1"/>
     <col min="9" max="9" width="24.5" customWidth="1"/>
-    <col min="10" max="10" width="6.375" customWidth="1"/>
+    <col min="10" max="10" width="8.5" customWidth="1"/>
     <col min="11" max="11" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1880,10 +2102,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1898,16 +2120,16 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J1" t="s">
         <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1915,10 +2137,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1933,16 +2155,16 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J2" t="s">
         <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -1953,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -1965,16 +2187,16 @@
         <v>0.8</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -1985,7 +2207,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1997,19 +2219,19 @@
         <v>2</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I4" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2020,7 +2242,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -2032,16 +2254,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2052,10 +2274,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>163</v>
+        <v>347</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -2064,16 +2286,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2084,10 +2306,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -2096,16 +2318,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
@@ -2116,10 +2338,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>80</v>
@@ -2128,16 +2350,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2148,10 +2370,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>40</v>
@@ -2160,16 +2382,16 @@
         <v>1.4</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I9" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2180,10 +2402,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>30</v>
@@ -2192,16 +2414,16 @@
         <v>1.4</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I10" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2212,10 +2434,10 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>348</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -2224,16 +2446,16 @@
         <v>1.4</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
@@ -2244,10 +2466,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>346</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2256,16 +2478,16 @@
         <v>99999999</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I12" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2276,10 +2498,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E13">
         <v>70</v>
@@ -2288,16 +2510,16 @@
         <v>1.2</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I13" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2308,10 +2530,10 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>349</v>
       </c>
       <c r="E14">
         <v>45</v>
@@ -2320,16 +2542,16 @@
         <v>1.2</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="I14" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="J14">
         <v>6</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -2340,10 +2562,10 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E15">
         <v>40</v>
@@ -2352,16 +2574,16 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I15" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="J15">
         <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -2372,10 +2594,10 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <v>60</v>
@@ -2384,16 +2606,16 @@
         <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I16" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="J16">
         <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2404,10 +2626,10 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -2416,16 +2638,16 @@
         <v>2</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I17" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J17">
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2436,10 +2658,10 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E18">
         <v>50</v>
@@ -2448,16 +2670,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I18" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2468,10 +2690,10 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E19">
         <v>60</v>
@@ -2480,16 +2702,16 @@
         <v>1.2</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I19" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2500,10 +2722,10 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E20">
         <v>60</v>
@@ -2512,16 +2734,16 @@
         <v>1</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I20" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="J20">
         <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2532,10 +2754,10 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E21">
         <v>60</v>
@@ -2544,16 +2766,16 @@
         <v>1.5</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I21" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J21">
         <v>4</v>
       </c>
       <c r="K21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2564,10 +2786,10 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E22">
         <v>100</v>
@@ -2576,16 +2798,16 @@
         <v>1</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I22" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2596,10 +2818,10 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E23">
         <v>60</v>
@@ -2608,23 +2830,284 @@
         <v>1</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I23" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G25" s="6"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" t="s">
+        <v>337</v>
+      </c>
+      <c r="E24">
+        <v>100</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="I24" t="s">
+        <v>358</v>
+      </c>
+      <c r="J24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" t="s">
+        <v>338</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <v>0.4</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="I25" t="s">
+        <v>311</v>
+      </c>
+      <c r="J25">
+        <v>5</v>
+      </c>
+      <c r="K25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" t="s">
+        <v>339</v>
+      </c>
+      <c r="E26">
+        <v>75</v>
+      </c>
+      <c r="F26">
+        <v>1.3</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="I26" t="s">
+        <v>317</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" t="s">
+        <v>340</v>
+      </c>
+      <c r="E27">
+        <v>70</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="I27" t="s">
+        <v>357</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" t="s">
+        <v>341</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="I28" t="s">
+        <v>322</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" t="s">
+        <v>342</v>
+      </c>
+      <c r="E29">
+        <v>85</v>
+      </c>
+      <c r="F29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="I29" t="s">
+        <v>325</v>
+      </c>
+      <c r="J29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" t="s">
+        <v>343</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+      <c r="F30">
+        <v>1.5</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="I30" t="s">
+        <v>324</v>
+      </c>
+      <c r="J30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" t="s">
+        <v>344</v>
+      </c>
+      <c r="E31">
+        <v>200</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>350</v>
+      </c>
+      <c r="I31" t="s">
+        <v>359</v>
+      </c>
+      <c r="J31">
+        <v>6</v>
+      </c>
+      <c r="K31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>351</v>
+      </c>
+      <c r="D32" t="s">
+        <v>345</v>
+      </c>
+      <c r="E32">
+        <v>100</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>362</v>
+      </c>
+      <c r="I32" t="s">
+        <v>321</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2634,1255 +3117,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB99EFAB-B000-4606-B7FA-03D380BA5ABF}">
-  <dimension ref="A1:G38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="44.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" t="s">
-        <v>238</v>
-      </c>
-      <c r="F1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4">
-        <v>200</v>
-      </c>
-      <c r="D4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5">
-        <v>200</v>
-      </c>
-      <c r="D5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C6">
-        <v>400</v>
-      </c>
-      <c r="D6" t="s">
-        <v>178</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C8" s="9">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C9">
-        <v>400</v>
-      </c>
-      <c r="D9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E9">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C10">
-        <v>600</v>
-      </c>
-      <c r="D10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11">
-        <v>200</v>
-      </c>
-      <c r="D11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>186</v>
-      </c>
-      <c r="C12">
-        <v>300</v>
-      </c>
-      <c r="D12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13">
-        <v>100</v>
-      </c>
-      <c r="D13" t="s">
-        <v>189</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>12</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="F14" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>192</v>
-      </c>
-      <c r="C15">
-        <v>300</v>
-      </c>
-      <c r="D15" t="s">
-        <v>193</v>
-      </c>
-      <c r="E15">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16">
-        <v>500</v>
-      </c>
-      <c r="D16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17">
-        <v>800</v>
-      </c>
-      <c r="D17" t="s">
-        <v>197</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18">
-        <v>1000</v>
-      </c>
-      <c r="D18" t="s">
-        <v>199</v>
-      </c>
-      <c r="E18">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C19">
-        <v>1000</v>
-      </c>
-      <c r="D19" t="s">
-        <v>201</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
-        <v>18</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C20" s="9">
-        <v>3000</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
-      <c r="F20" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C21">
-        <v>1000</v>
-      </c>
-      <c r="D21" t="s">
-        <v>205</v>
-      </c>
-      <c r="E21">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22">
-        <v>500</v>
-      </c>
-      <c r="D22" t="s">
-        <v>207</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>21</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="F23" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>210</v>
-      </c>
-      <c r="C24">
-        <v>300</v>
-      </c>
-      <c r="D24" t="s">
-        <v>211</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25">
-        <v>200</v>
-      </c>
-      <c r="D25" t="s">
-        <v>213</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>214</v>
-      </c>
-      <c r="C26">
-        <v>800</v>
-      </c>
-      <c r="D26" t="s">
-        <v>213</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>215</v>
-      </c>
-      <c r="C27">
-        <v>1000</v>
-      </c>
-      <c r="D27" t="s">
-        <v>213</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>216</v>
-      </c>
-      <c r="C28">
-        <v>600</v>
-      </c>
-      <c r="D28" t="s">
-        <v>217</v>
-      </c>
-      <c r="E28">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>218</v>
-      </c>
-      <c r="C29">
-        <v>800</v>
-      </c>
-      <c r="D29" t="s">
-        <v>219</v>
-      </c>
-      <c r="E29">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>220</v>
-      </c>
-      <c r="C30">
-        <v>300</v>
-      </c>
-      <c r="D30" t="s">
-        <v>221</v>
-      </c>
-      <c r="E30">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>222</v>
-      </c>
-      <c r="C31">
-        <v>500</v>
-      </c>
-      <c r="D31" t="s">
-        <v>223</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>224</v>
-      </c>
-      <c r="C32">
-        <v>500</v>
-      </c>
-      <c r="D32" t="s">
-        <v>225</v>
-      </c>
-      <c r="E32">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="8">
-        <v>31</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="C33" s="9">
-        <v>10000</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="E33" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="F33" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="9">
-        <v>32</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="C34" s="9">
-        <v>5000</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="E34" s="9">
-        <v>0.6</v>
-      </c>
-      <c r="F34" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>230</v>
-      </c>
-      <c r="C35">
-        <v>800</v>
-      </c>
-      <c r="D35" t="s">
-        <v>231</v>
-      </c>
-      <c r="E35">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>232</v>
-      </c>
-      <c r="C36">
-        <v>900</v>
-      </c>
-      <c r="D36" t="s">
-        <v>233</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>292</v>
-      </c>
-      <c r="C37">
-        <v>200</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>296</v>
-      </c>
-      <c r="C38">
-        <v>50</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A017588-98F4-4FD4-A257-5EBE77D6705F}">
-  <dimension ref="A1:G22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="30.25" customWidth="1"/>
-    <col min="7" max="7" width="49" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F2" t="s">
-        <v>335</v>
-      </c>
-      <c r="G2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>293</v>
-      </c>
-      <c r="C3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>340</v>
-      </c>
-      <c r="G3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>340</v>
-      </c>
-      <c r="G4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>279</v>
-      </c>
-      <c r="C5" t="s">
-        <v>261</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>340</v>
-      </c>
-      <c r="G5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>340</v>
-      </c>
-      <c r="G6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D8">
-        <v>6</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>340</v>
-      </c>
-      <c r="G8" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>298</v>
-      </c>
-      <c r="C9" t="s">
-        <v>265</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>340</v>
-      </c>
-      <c r="G9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>282</v>
-      </c>
-      <c r="C10" t="s">
-        <v>266</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>340</v>
-      </c>
-      <c r="G10" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>283</v>
-      </c>
-      <c r="C11" t="s">
-        <v>268</v>
-      </c>
-      <c r="D11">
-        <v>9</v>
-      </c>
-      <c r="E11">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>340</v>
-      </c>
-      <c r="G11" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>284</v>
-      </c>
-      <c r="C12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>340</v>
-      </c>
-      <c r="G12" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>299</v>
-      </c>
-      <c r="C13" t="s">
-        <v>269</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-      <c r="E13">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>340</v>
-      </c>
-      <c r="G13" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>285</v>
-      </c>
-      <c r="C14" t="s">
-        <v>271</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>340</v>
-      </c>
-      <c r="G14" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>286</v>
-      </c>
-      <c r="C15" t="s">
-        <v>270</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-      <c r="E15">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>340</v>
-      </c>
-      <c r="G15" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>287</v>
-      </c>
-      <c r="C16" t="s">
-        <v>272</v>
-      </c>
-      <c r="D16">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>340</v>
-      </c>
-      <c r="G16" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>295</v>
-      </c>
-      <c r="C17" t="s">
-        <v>273</v>
-      </c>
-      <c r="D17">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>15</v>
-      </c>
-      <c r="F17" t="s">
-        <v>340</v>
-      </c>
-      <c r="G17" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>288</v>
-      </c>
-      <c r="C18" t="s">
-        <v>274</v>
-      </c>
-      <c r="D18">
-        <v>16</v>
-      </c>
-      <c r="E18">
-        <v>16</v>
-      </c>
-      <c r="F18" t="s">
-        <v>340</v>
-      </c>
-      <c r="G18" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>291</v>
-      </c>
-      <c r="C19" t="s">
-        <v>275</v>
-      </c>
-      <c r="D19">
-        <v>17</v>
-      </c>
-      <c r="E19">
-        <v>17</v>
-      </c>
-      <c r="F19" t="s">
-        <v>340</v>
-      </c>
-      <c r="G19" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>300</v>
-      </c>
-      <c r="C20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20">
-        <v>18</v>
-      </c>
-      <c r="E20">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s">
-        <v>340</v>
-      </c>
-      <c r="G20" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>289</v>
-      </c>
-      <c r="C21" t="s">
-        <v>277</v>
-      </c>
-      <c r="D21">
-        <v>19</v>
-      </c>
-      <c r="E21">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s">
-        <v>340</v>
-      </c>
-      <c r="G21" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>297</v>
-      </c>
-      <c r="C22" t="s">
-        <v>278</v>
-      </c>
-      <c r="D22">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>20</v>
-      </c>
-      <c r="F22" t="s">
-        <v>340</v>
-      </c>
-      <c r="G22" t="s">
-        <v>339</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1917D1-1E80-49DA-BCD2-DF0A5B07018B}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3907,7 +3147,7 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E1" t="s">
         <v>37</v>
@@ -3933,7 +3173,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
@@ -3959,7 +3199,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3971,7 +3211,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3985,7 +3225,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3997,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -4011,7 +3251,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -4031,13 +3271,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4049,7 +3289,7 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -4057,13 +3297,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4075,7 +3315,7 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -4083,13 +3323,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4101,7 +3341,7 @@
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -4109,13 +3349,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4127,7 +3367,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -4135,13 +3375,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4153,7 +3393,7 @@
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -4167,7 +3407,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4193,7 +3433,7 @@
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -4213,13 +3453,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E13">
         <v>40</v>
@@ -4231,7 +3471,7 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -4239,13 +3479,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -4257,7 +3497,7 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -4265,13 +3505,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4283,7 +3523,7 @@
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -4291,13 +3531,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4309,7 +3549,7 @@
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -4317,13 +3557,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4335,7 +3575,7 @@
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -4343,13 +3583,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -4361,7 +3601,7 @@
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -4369,13 +3609,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -4387,7 +3627,7 @@
         <v>6</v>
       </c>
       <c r="H19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -4395,13 +3635,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -4413,7 +3653,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -4421,13 +3661,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4444,13 +3684,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -4462,7 +3702,7 @@
         <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -4470,25 +3710,253 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D23" t="s">
+        <v>310</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>15</v>
+      </c>
+      <c r="H23" t="s">
         <v>130</v>
       </c>
-      <c r="D23" t="s">
-        <v>314</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C24" t="s">
+        <v>364</v>
+      </c>
+      <c r="D24" t="s">
+        <v>365</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>366</v>
+      </c>
+      <c r="C25" t="s">
+        <v>367</v>
+      </c>
+      <c r="D25" t="s">
+        <v>375</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>14</v>
       </c>
-      <c r="H23" t="s">
-        <v>133</v>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>368</v>
+      </c>
+      <c r="C26" t="s">
+        <v>369</v>
+      </c>
+      <c r="D26" t="s">
+        <v>375</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>370</v>
+      </c>
+      <c r="C27" t="s">
+        <v>371</v>
+      </c>
+      <c r="D27" t="s">
+        <v>376</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>18</v>
+      </c>
+      <c r="H27" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>372</v>
+      </c>
+      <c r="C28" t="s">
+        <v>374</v>
+      </c>
+      <c r="D28" t="s">
+        <v>376</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>373</v>
+      </c>
+      <c r="C29" t="s">
+        <v>377</v>
+      </c>
+      <c r="D29" t="s">
+        <v>376</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>20</v>
+      </c>
+      <c r="H29" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>378</v>
+      </c>
+      <c r="C30" t="s">
+        <v>379</v>
+      </c>
+      <c r="D30" t="s">
+        <v>376</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>21</v>
+      </c>
+      <c r="H30" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>380</v>
+      </c>
+      <c r="C31" t="s">
+        <v>381</v>
+      </c>
+      <c r="D31" t="s">
+        <v>376</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>383</v>
+      </c>
+      <c r="C32" t="s">
+        <v>382</v>
+      </c>
+      <c r="D32" t="s">
+        <v>375</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4498,13 +3966,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6983423-C835-4E57-BDD0-3AAA7B61ADEF}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4543,7 +4011,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4562,10 +4030,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4573,10 +4041,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4584,10 +4052,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -4595,10 +4063,1264 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB99EFAB-B000-4606-B7FA-03D380BA5ABF}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="44.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6">
+        <v>400</v>
+      </c>
+      <c r="D6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9">
+        <v>400</v>
+      </c>
+      <c r="D9" t="s">
+        <v>231</v>
+      </c>
+      <c r="E9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10">
+        <v>600</v>
+      </c>
+      <c r="D10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E10">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+      <c r="D11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12">
+        <v>300</v>
+      </c>
+      <c r="D12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="F14" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15">
+        <v>300</v>
+      </c>
+      <c r="D15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16">
+        <v>500</v>
+      </c>
+      <c r="D16" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17">
+        <v>800</v>
+      </c>
+      <c r="D17" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18">
+        <v>1000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19">
+        <v>1000</v>
+      </c>
+      <c r="D19" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>18</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="9">
+        <v>3000</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21">
+        <v>1000</v>
+      </c>
+      <c r="D21" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+      <c r="D22" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C23" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="F23" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24">
+        <v>300</v>
+      </c>
+      <c r="D24" t="s">
+        <v>207</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25">
+        <v>200</v>
+      </c>
+      <c r="D25" t="s">
+        <v>209</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26">
+        <v>800</v>
+      </c>
+      <c r="D26" t="s">
+        <v>209</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27">
+        <v>1000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28">
+        <v>600</v>
+      </c>
+      <c r="D28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29">
+        <v>800</v>
+      </c>
+      <c r="D29" t="s">
+        <v>215</v>
+      </c>
+      <c r="E29">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30">
+        <v>300</v>
+      </c>
+      <c r="D30" t="s">
+        <v>217</v>
+      </c>
+      <c r="E30">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31">
+        <v>500</v>
+      </c>
+      <c r="D31" t="s">
+        <v>219</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32">
+        <v>500</v>
+      </c>
+      <c r="D32" t="s">
+        <v>221</v>
+      </c>
+      <c r="E32">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
+        <v>31</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="9">
+        <v>10000</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E33" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F33" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="9">
+        <v>32</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" s="9">
+        <v>5000</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="F34" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35">
+        <v>800</v>
+      </c>
+      <c r="D35" t="s">
+        <v>227</v>
+      </c>
+      <c r="E35">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36">
+        <v>900</v>
+      </c>
+      <c r="D36" t="s">
+        <v>229</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>288</v>
+      </c>
+      <c r="C37">
+        <v>200</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>292</v>
+      </c>
+      <c r="C38">
+        <v>50</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A017588-98F4-4FD4-A257-5EBE77D6705F}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="30.25" customWidth="1"/>
+    <col min="7" max="7" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>336</v>
+      </c>
+      <c r="G6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>336</v>
+      </c>
+      <c r="G8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>336</v>
+      </c>
+      <c r="G9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>336</v>
+      </c>
+      <c r="G10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>336</v>
+      </c>
+      <c r="G11" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>336</v>
+      </c>
+      <c r="G12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>336</v>
+      </c>
+      <c r="G13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>336</v>
+      </c>
+      <c r="G14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>336</v>
+      </c>
+      <c r="G15" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>336</v>
+      </c>
+      <c r="G16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>291</v>
+      </c>
+      <c r="C17" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s">
+        <v>336</v>
+      </c>
+      <c r="G17" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>336</v>
+      </c>
+      <c r="G18" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>336</v>
+      </c>
+      <c r="G19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>296</v>
+      </c>
+      <c r="C20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>336</v>
+      </c>
+      <c r="G20" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>336</v>
+      </c>
+      <c r="G21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>293</v>
+      </c>
+      <c r="C22" t="s">
+        <v>274</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22" t="s">
+        <v>336</v>
+      </c>
+      <c r="G22" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77EBF61-E80B-4A91-B127-344C19D1F0B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C1C08D-010A-4AF7-ADC1-42DD4BD3271F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28845" yWindow="4785" windowWidth="21570" windowHeight="14790" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
+    <workbookView xWindow="28920" yWindow="75" windowWidth="21180" windowHeight="21075" activeTab="1" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="401">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1612,9 +1612,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>击敌后所有吴克都加一层buff
+    <t>杀敌后所有吴克都加一层buff
 一个吴克倒下了
 千千万万个吴克站起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{str:'atkspd',num:-20,add:0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐吓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{str:'atk',num:-20,add:0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{str:'atk',num:0,add:5}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1709,12 +1733,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1731,7 +1761,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1760,6 +1790,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2078,9 +2111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D0E652-86CF-433A-BD6F-177C0A6FDF59}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2846,7 +2879,7 @@
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="10">
         <v>2</v>
       </c>
       <c r="C24" t="s">
@@ -3120,9 +3153,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1917D1-1E80-49DA-BCD2-DF0A5B07018B}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3968,11 +4001,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6983423-C835-4E57-BDD0-3AAA7B61ADEF}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4078,6 +4111,39 @@
       </c>
       <c r="C9" t="s">
         <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>397</v>
+      </c>
+      <c r="C11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C12" t="s">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C1C08D-010A-4AF7-ADC1-42DD4BD3271F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB8B541-FFDF-4B3E-B7C5-EEC27A470E77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28920" yWindow="75" windowWidth="21180" windowHeight="21075" activeTab="1" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
+    <workbookView xWindow="28920" yWindow="3420" windowWidth="21180" windowHeight="17730" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="398">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -870,12 +870,6 @@
     <t>雷电的化生</t>
   </si>
   <si>
-    <t>埃及舞者</t>
-  </si>
-  <si>
-    <t>被做成了木乃伊</t>
-  </si>
-  <si>
     <t>星光灿烂</t>
   </si>
   <si>
@@ -922,18 +916,6 @@
   </si>
   <si>
     <t>融化之后不知道是什么样子</t>
-  </si>
-  <si>
-    <t>龙</t>
-  </si>
-  <si>
-    <t>未知</t>
-  </si>
-  <si>
-    <t>幽灵长老</t>
-  </si>
-  <si>
-    <t>一个大幽灵</t>
   </si>
   <si>
     <t>铜人</t>
@@ -1432,23 +1414,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赋予周围概率秒杀敌人的能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主角</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最后一击击杀怪物的时候，可以获得超多金币哦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>让我来看看到底是谁又掉血了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击伤害翻倍，升星能增加暴击概率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1473,20 +1443,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>随机攻击敌人
-与不能合成的角色交换位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最喜欢打boss了
-对Boss造成多倍伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将角色替换为其他角色的技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄金梦想</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1603,42 +1559,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可以解除同伴身上的异常状态哦，
-星星越多解除的人数越多哦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{damage:300,num:10,add:5}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>杀敌后所有吴克都加一层buff
+    <t>寒冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{str:'atkspd',num:-20,add:0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐吓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{str:'atk',num:-20,add:0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千骸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡渡鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;超快的攻击速度！
+随机攻击敌人
+与不能合成的角色交换位置&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;可以解除同伴身上的异常状态哦，
+星星越多解除的人数越多哦&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;杀敌后所有吴克都加一层buff
 一个吴克倒下了
-千千万万个吴克站起来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒冷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{str:'atkspd',num:-20,add:0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恐吓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{str:'atk',num:-20,add:0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{str:'atk',num:0,add:5}</t>
+千千万万个吴克站起来&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;暴击伤害翻倍
+升星能增加暴击概率&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;赋予周围概率秒杀敌人的能力
+即使是范围攻击也可以轻易秒杀&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;赋予将角色替换为其他角色的技能
+并且为其净化掉所有buff&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;最喜欢打boss了
+对&lt;color=#FF0E0E&gt;Boss&lt;/color&gt;造成多倍伤害&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;最后一击击杀怪物时&lt;color=#FFE81A&gt;偷窃&lt;/color&gt;,
+可以获得超多金币哦&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{str:'atk',num:0,add:3}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1742,17 +1741,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1761,7 +1775,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1793,6 +1807,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2111,9 +2131,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D0E652-86CF-433A-BD6F-177C0A6FDF59}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2156,7 +2176,7 @@
         <v>102</v>
       </c>
       <c r="I1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="J1" t="s">
         <v>27</v>
@@ -2191,7 +2211,7 @@
         <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="J2" t="s">
         <v>26</v>
@@ -2223,7 +2243,7 @@
         <v>134</v>
       </c>
       <c r="I3" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -2237,7 +2257,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>140</v>
@@ -2258,7 +2278,7 @@
         <v>104</v>
       </c>
       <c r="I4" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -2290,7 +2310,7 @@
         <v>147</v>
       </c>
       <c r="I5" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="J5">
         <v>6</v>
@@ -2310,7 +2330,7 @@
         <v>141</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -2319,10 +2339,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="I6" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -2354,7 +2374,7 @@
         <v>148</v>
       </c>
       <c r="I7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -2383,10 +2403,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I8" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -2412,13 +2432,13 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>151</v>
       </c>
       <c r="I9" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -2450,7 +2470,7 @@
         <v>157</v>
       </c>
       <c r="I10" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -2464,13 +2484,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -2479,10 +2499,10 @@
         <v>1.4</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="I11" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -2496,13 +2516,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>139</v>
       </c>
       <c r="D12" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2514,13 +2534,13 @@
         <v>152</v>
       </c>
       <c r="I12" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2543,10 +2563,10 @@
         <v>1.2</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="I13" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -2566,7 +2586,7 @@
         <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E14">
         <v>45</v>
@@ -2578,7 +2598,7 @@
         <v>160</v>
       </c>
       <c r="I14" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -2610,7 +2630,7 @@
         <v>149</v>
       </c>
       <c r="I15" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -2642,7 +2662,7 @@
         <v>133</v>
       </c>
       <c r="I16" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J16">
         <v>6</v>
@@ -2674,7 +2694,7 @@
         <v>156</v>
       </c>
       <c r="I17" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="J17">
         <v>6</v>
@@ -2706,7 +2726,7 @@
         <v>153</v>
       </c>
       <c r="I18" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -2738,7 +2758,7 @@
         <v>150</v>
       </c>
       <c r="I19" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2767,10 +2787,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="I20" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="J20">
         <v>3</v>
@@ -2802,7 +2822,7 @@
         <v>154</v>
       </c>
       <c r="I21" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -2834,7 +2854,7 @@
         <v>155</v>
       </c>
       <c r="I22" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -2844,13 +2864,13 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="11">
         <v>21</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="11">
         <v>5</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="11" t="s">
         <v>140</v>
       </c>
       <c r="D23" t="s">
@@ -2866,7 +2886,7 @@
         <v>158</v>
       </c>
       <c r="I23" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2876,17 +2896,17 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="11">
         <v>22</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="12">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D24" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -2895,27 +2915,27 @@
         <v>2</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I24" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="J24">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
         <v>23</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="12">
         <v>5</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="E25">
         <v>50</v>
@@ -2924,30 +2944,30 @@
         <v>0.4</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="I25" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="J25">
         <v>5</v>
       </c>
       <c r="K25" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="11">
         <v>24</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="12">
         <v>2</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D26" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E26">
         <v>75</v>
@@ -2956,27 +2976,27 @@
         <v>1.3</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="I26" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="11">
         <v>25</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="12">
         <v>4</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="11" t="s">
         <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E27">
         <v>70</v>
@@ -2985,27 +3005,27 @@
         <v>1</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="I27" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="11">
         <v>26</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="12">
         <v>3</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="11" t="s">
         <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E28">
         <v>50</v>
@@ -3014,27 +3034,27 @@
         <v>1</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I28" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="J28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
         <v>27</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="12">
         <v>3</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E29">
         <v>85</v>
@@ -3043,27 +3063,27 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="I29" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="J29">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="10">
         <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -3072,16 +3092,16 @@
         <v>1.5</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="I30" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J30">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3092,19 +3112,19 @@
         <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E31">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="F31">
-        <v>4</v>
-      </c>
-      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I31" t="s">
         <v>350</v>
-      </c>
-      <c r="I31" t="s">
-        <v>359</v>
       </c>
       <c r="J31">
         <v>6</v>
@@ -3113,7 +3133,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3121,10 +3141,10 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="D32" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E32">
         <v>100</v>
@@ -3132,11 +3152,11 @@
       <c r="F32">
         <v>2</v>
       </c>
-      <c r="G32" t="s">
-        <v>362</v>
+      <c r="G32" s="6" t="s">
+        <v>394</v>
       </c>
       <c r="I32" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -3153,9 +3173,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1917D1-1E80-49DA-BCD2-DF0A5B07018B}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3180,7 +3200,7 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="E1" t="s">
         <v>37</v>
@@ -3206,7 +3226,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
@@ -3232,7 +3252,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3258,7 +3278,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3284,7 +3304,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -3310,7 +3330,7 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3336,7 +3356,7 @@
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3362,7 +3382,7 @@
         <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3388,7 +3408,7 @@
         <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3414,7 +3434,7 @@
         <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3440,7 +3460,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3466,7 +3486,7 @@
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3492,7 +3512,7 @@
         <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E13">
         <v>40</v>
@@ -3518,7 +3538,7 @@
         <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3530,7 +3550,7 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3544,7 +3564,7 @@
         <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3556,7 +3576,7 @@
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3570,7 +3590,7 @@
         <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3596,7 +3616,7 @@
         <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3608,7 +3628,7 @@
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3622,7 +3642,7 @@
         <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3648,7 +3668,7 @@
         <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3674,7 +3694,7 @@
         <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3700,7 +3720,7 @@
         <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3723,7 +3743,7 @@
         <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -3749,7 +3769,7 @@
         <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3769,13 +3789,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C24" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="D24" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3787,7 +3807,7 @@
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3795,13 +3815,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C25" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="D25" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3818,13 +3838,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C26" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="D26" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3836,7 +3856,7 @@
         <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3844,13 +3864,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C27" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D27" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3862,7 +3882,7 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3870,13 +3890,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C28" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="D28" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3888,7 +3908,7 @@
         <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -3896,13 +3916,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C29" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="D29" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3914,7 +3934,7 @@
         <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -3922,13 +3942,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C30" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="D30" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3940,7 +3960,7 @@
         <v>21</v>
       </c>
       <c r="H30" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -3948,13 +3968,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="C31" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="D31" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3966,7 +3986,7 @@
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -3974,13 +3994,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C32" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D32" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="E32">
         <v>30</v>
@@ -4005,7 +4025,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4107,10 +4127,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="C9" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4118,10 +4138,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="C10" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -4129,10 +4149,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="C11" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -4140,10 +4160,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="C12" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -4158,7 +4178,7 @@
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4179,19 +4199,19 @@
         <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D1" t="s">
         <v>163</v>
       </c>
       <c r="E1" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="G1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4202,19 +4222,19 @@
         <v>165</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D2" t="s">
         <v>166</v>
       </c>
       <c r="E2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4290,7 +4310,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -4322,7 +4342,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4330,13 +4350,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C9">
         <v>400</v>
       </c>
       <c r="D9" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E9">
         <v>2.5</v>
@@ -4430,7 +4450,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4538,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4580,14 +4600,12 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>204</v>
+        <v>388</v>
       </c>
       <c r="C23" s="9">
         <v>2000</v>
       </c>
-      <c r="D23" s="9" t="s">
-        <v>205</v>
-      </c>
+      <c r="D23" s="9"/>
       <c r="E23" s="9">
         <v>0.8</v>
       </c>
@@ -4595,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -4603,13 +4621,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C24">
         <v>300</v>
       </c>
       <c r="D24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -4620,13 +4638,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C25">
         <v>200</v>
       </c>
       <c r="D25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -4637,13 +4655,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C26">
         <v>800</v>
       </c>
       <c r="D26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -4654,13 +4672,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C27">
         <v>1000</v>
       </c>
       <c r="D27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -4671,13 +4689,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C28">
         <v>600</v>
       </c>
       <c r="D28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E28">
         <v>0.2</v>
@@ -4688,13 +4706,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C29">
         <v>800</v>
       </c>
       <c r="D29" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E29">
         <v>0.3</v>
@@ -4705,13 +4723,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C30">
         <v>300</v>
       </c>
       <c r="D30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E30">
         <v>1.9</v>
@@ -4722,13 +4740,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C31">
         <v>500</v>
       </c>
       <c r="D31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -4739,13 +4757,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C32">
         <v>500</v>
       </c>
       <c r="D32" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E32">
         <v>0.8</v>
@@ -4756,14 +4774,12 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>222</v>
+        <v>386</v>
       </c>
       <c r="C33" s="9">
         <v>10000</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>223</v>
-      </c>
+      <c r="D33" s="9"/>
       <c r="E33" s="9">
         <v>0.5</v>
       </c>
@@ -4771,7 +4787,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -4779,14 +4795,12 @@
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>224</v>
+        <v>387</v>
       </c>
       <c r="C34" s="9">
         <v>5000</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>225</v>
-      </c>
+      <c r="D34" s="9"/>
       <c r="E34" s="9">
         <v>0.6</v>
       </c>
@@ -4794,7 +4808,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -4802,13 +4816,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C35">
         <v>800</v>
       </c>
       <c r="D35" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E35">
         <v>0.9</v>
@@ -4819,13 +4833,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C36">
         <v>900</v>
       </c>
       <c r="D36" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -4836,7 +4850,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="C37">
         <v>200</v>
@@ -4850,7 +4864,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C38">
         <v>50</v>
@@ -4888,22 +4902,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="F1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -4911,22 +4925,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E2" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4934,10 +4948,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -4946,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -4957,10 +4971,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -4969,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -4980,10 +4994,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -4992,10 +5006,10 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G5" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -5003,10 +5017,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C6" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -5015,10 +5029,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G6" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -5026,10 +5040,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -5038,10 +5052,10 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -5049,10 +5063,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C8" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -5061,10 +5075,10 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G8" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -5072,10 +5086,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="C9" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -5084,10 +5098,10 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G9" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -5095,10 +5109,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C10" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -5107,10 +5121,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G10" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -5118,10 +5132,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C11" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -5130,10 +5144,10 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G11" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -5141,10 +5155,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C12" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -5153,10 +5167,10 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G12" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -5164,10 +5178,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C13" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D13">
         <v>11</v>
@@ -5176,10 +5190,10 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G13" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -5187,10 +5201,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C14" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -5199,10 +5213,10 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G14" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -5210,10 +5224,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C15" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -5222,10 +5236,10 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G15" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -5233,10 +5247,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C16" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D16">
         <v>14</v>
@@ -5245,10 +5259,10 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G16" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -5256,10 +5270,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C17" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D17">
         <v>15</v>
@@ -5268,10 +5282,10 @@
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G17" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -5279,10 +5293,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C18" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D18">
         <v>16</v>
@@ -5291,10 +5305,10 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G18" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -5302,10 +5316,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C19" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D19">
         <v>17</v>
@@ -5314,10 +5328,10 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G19" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -5325,10 +5339,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="C20" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D20">
         <v>18</v>
@@ -5337,10 +5351,10 @@
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G20" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -5348,10 +5362,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="C21" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D21">
         <v>19</v>
@@ -5360,10 +5374,10 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G21" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -5371,10 +5385,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="C22" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D22">
         <v>20</v>
@@ -5383,10 +5397,10 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G22" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB8B541-FFDF-4B3E-B7C5-EEC27A470E77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA48AE9-AF8F-4B82-BAD2-ABC355197CC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28920" yWindow="3420" windowWidth="21180" windowHeight="17730" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
+    <workbookView xWindow="29010" yWindow="-2355" windowWidth="21180" windowHeight="14265" activeTab="4" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="424">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1110,10 +1110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>月黑风高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1,10,11,6]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1638,6 +1634,114 @@
   </si>
   <si>
     <t>{str:'atk',num:0,add:3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg#number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永夜之境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>land#number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[2,0,2][2,5,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,1,0,1,0],[0,1,0,1,0],[0,1,0,1,0],[0,1,0,1,0],[0,1,0,1,0],[0,1,0,1,0]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[2,0,2],[2,5,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[4,0,2],[4,1,3],[0,1,0]],[[4,5,1],[4,4,3],[0,4,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,0,0,0,0],[0,0,0,0,0],[0,0,1,1,1],[0,0,1,1,1],[0,0,0,0,0],[0,0,0,0,0]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[4,4,1],[4,0,3],[0,0,2],[0,5,4],[2,5,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[4,0,2],[4,1,3],[3,1,2],[3,2,3],[2,2,2],[2,3,3],[1,3,2],[1,4,3],[0,4,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,1,1,1,0],[1,1,1,0,0],[1,1,0,0,0],[1,0,0,1,0],[0,0,1,1,0],[1,1,0,0,0]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[1,0,2],[1,5,0]],[[3,0,2],[3,5,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,0,0,0,1],[1,0,0,0,1],[1,0,0,0,1],[1,0,0,0,1],[1,0,0,0,1],[1,0,0,0,1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[0,0,1],[0,2,4],[2,2,1],[2,5,0]],[[4,0,1],[4,2,3],[2,2,1],[2,5,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,1,1,1,0],[0,1,1,1,0],[0,0,0,0,0],[1,1,0,1,1],[1,1,0,1,1],[1,1,0,1,1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[0,0,2],[0,2,4],[2,2,1],[2,5,0]],[[4,0,2],[4,2,3],[2,2,1],[2,5,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[5,0,2],[5,2,3],[0,2,2],[0,5,4],[2,5,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,0,0,0,0],[0,0,0,0,0],[0,0,0,0,0],[0,1,1,1,1],[0,1,1,1,1],[0,0,0,1,1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[0,0,2],[0,1,4],[1,1,2],[1,2,4],[2,2,2],[2,3,4],[3,3,2],[3,4,4],[4,4,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,1,1,1,0],[0,0,1,1,1],[1,0,0,1,1],[1,1,0,0,1],[1,1,1,0,0],[0,0,0,0,0]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[2,0,2],[2,1,4],[2,1,4],[4,1,2],[4,4,3],[2,4,2],[2,5,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,1,0,0,0],[1,1,0,0,0],[0,0,1,1,0],[0,0,1,1,0],[1,1,0,0,0],[1,1,0,0,0]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[0,1,4],[4,1,0]],[[0,3,4],[4,3,0]],[[0,5,4],[4,5,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,1,1,1,1],[0,0,0,0,0],[1,1,1,1,1],[0,0,0,0,0],[1,1,1,1,1],[0,0,0,0,0]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,0,0,0,0],[0,1,1,1,0],[0,1,1,1,0],[0,1,1,1,0],[0,1,1,1,0],[0,0,0,0,0]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2131,7 +2235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D0E652-86CF-433A-BD6F-177C0A6FDF59}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
@@ -2139,7 +2243,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="3.5" customWidth="1"/>
     <col min="3" max="4" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
@@ -2176,7 +2280,7 @@
         <v>102</v>
       </c>
       <c r="I1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J1" t="s">
         <v>27</v>
@@ -2211,7 +2315,7 @@
         <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J2" t="s">
         <v>26</v>
@@ -2243,7 +2347,7 @@
         <v>134</v>
       </c>
       <c r="I3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -2278,7 +2382,7 @@
         <v>104</v>
       </c>
       <c r="I4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -2310,7 +2414,7 @@
         <v>147</v>
       </c>
       <c r="I5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J5">
         <v>6</v>
@@ -2330,7 +2434,7 @@
         <v>141</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -2342,7 +2446,7 @@
         <v>231</v>
       </c>
       <c r="I6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -2374,7 +2478,7 @@
         <v>148</v>
       </c>
       <c r="I7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -2406,7 +2510,7 @@
         <v>234</v>
       </c>
       <c r="I8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -2438,7 +2542,7 @@
         <v>151</v>
       </c>
       <c r="I9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -2470,7 +2574,7 @@
         <v>157</v>
       </c>
       <c r="I10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -2490,7 +2594,7 @@
         <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -2502,7 +2606,7 @@
         <v>230</v>
       </c>
       <c r="I11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -2522,7 +2626,7 @@
         <v>139</v>
       </c>
       <c r="D12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2534,13 +2638,13 @@
         <v>152</v>
       </c>
       <c r="I12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2566,7 +2670,7 @@
         <v>232</v>
       </c>
       <c r="I13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -2586,7 +2690,7 @@
         <v>140</v>
       </c>
       <c r="D14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E14">
         <v>45</v>
@@ -2598,7 +2702,7 @@
         <v>160</v>
       </c>
       <c r="I14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -2630,7 +2734,7 @@
         <v>149</v>
       </c>
       <c r="I15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -2662,7 +2766,7 @@
         <v>133</v>
       </c>
       <c r="I16" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J16">
         <v>6</v>
@@ -2694,7 +2798,7 @@
         <v>156</v>
       </c>
       <c r="I17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J17">
         <v>6</v>
@@ -2726,7 +2830,7 @@
         <v>153</v>
       </c>
       <c r="I18" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -2758,7 +2862,7 @@
         <v>150</v>
       </c>
       <c r="I19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2790,7 +2894,7 @@
         <v>233</v>
       </c>
       <c r="I20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J20">
         <v>3</v>
@@ -2822,7 +2926,7 @@
         <v>154</v>
       </c>
       <c r="I21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -2854,7 +2958,7 @@
         <v>155</v>
       </c>
       <c r="I22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -2886,7 +2990,7 @@
         <v>158</v>
       </c>
       <c r="I23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -2906,7 +3010,7 @@
         <v>141</v>
       </c>
       <c r="D24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -2915,10 +3019,10 @@
         <v>2</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J24">
         <v>6</v>
@@ -2935,7 +3039,7 @@
         <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E25">
         <v>50</v>
@@ -2944,16 +3048,16 @@
         <v>0.4</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J25">
         <v>5</v>
       </c>
       <c r="K25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2967,7 +3071,7 @@
         <v>141</v>
       </c>
       <c r="D26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E26">
         <v>75</v>
@@ -2976,10 +3080,10 @@
         <v>1.3</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -2996,7 +3100,7 @@
         <v>140</v>
       </c>
       <c r="D27" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E27">
         <v>70</v>
@@ -3005,10 +3109,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -3025,7 +3129,7 @@
         <v>140</v>
       </c>
       <c r="D28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E28">
         <v>50</v>
@@ -3034,10 +3138,10 @@
         <v>1</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J28">
         <v>6</v>
@@ -3054,7 +3158,7 @@
         <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E29">
         <v>85</v>
@@ -3063,10 +3167,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I29" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J29">
         <v>6</v>
@@ -3083,7 +3187,7 @@
         <v>140</v>
       </c>
       <c r="D30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -3092,10 +3196,10 @@
         <v>1.5</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J30">
         <v>6</v>
@@ -3112,7 +3216,7 @@
         <v>141</v>
       </c>
       <c r="D31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E31">
         <v>80</v>
@@ -3121,10 +3225,10 @@
         <v>2</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J31">
         <v>6</v>
@@ -3141,10 +3245,10 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E32">
         <v>100</v>
@@ -3153,10 +3257,10 @@
         <v>2</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I32" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -3200,7 +3304,7 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1" t="s">
         <v>37</v>
@@ -3226,7 +3330,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
@@ -3252,7 +3356,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3278,7 +3382,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3304,7 +3408,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -3330,7 +3434,7 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3356,7 +3460,7 @@
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3382,7 +3486,7 @@
         <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3408,7 +3512,7 @@
         <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3434,7 +3538,7 @@
         <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3460,7 +3564,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3486,7 +3590,7 @@
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3512,7 +3616,7 @@
         <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E13">
         <v>40</v>
@@ -3538,7 +3642,7 @@
         <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3550,7 +3654,7 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3564,7 +3668,7 @@
         <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3576,7 +3680,7 @@
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3590,7 +3694,7 @@
         <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3616,7 +3720,7 @@
         <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3628,7 +3732,7 @@
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3642,7 +3746,7 @@
         <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3668,7 +3772,7 @@
         <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3694,7 +3798,7 @@
         <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3720,7 +3824,7 @@
         <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3743,7 +3847,7 @@
         <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -3769,7 +3873,7 @@
         <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3789,13 +3893,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>350</v>
+      </c>
+      <c r="C24" t="s">
         <v>351</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>352</v>
-      </c>
-      <c r="D24" t="s">
-        <v>353</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3807,7 +3911,7 @@
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3815,13 +3919,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>353</v>
+      </c>
+      <c r="C25" t="s">
         <v>354</v>
       </c>
-      <c r="C25" t="s">
-        <v>355</v>
-      </c>
       <c r="D25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3838,13 +3942,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>355</v>
+      </c>
+      <c r="C26" t="s">
         <v>356</v>
       </c>
-      <c r="C26" t="s">
-        <v>357</v>
-      </c>
       <c r="D26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3856,7 +3960,7 @@
         <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3864,13 +3968,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>357</v>
+      </c>
+      <c r="C27" t="s">
         <v>358</v>
       </c>
-      <c r="C27" t="s">
-        <v>359</v>
-      </c>
       <c r="D27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3882,7 +3986,7 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3890,13 +3994,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3908,7 +4012,7 @@
         <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -3916,13 +4020,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3934,7 +4038,7 @@
         <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -3942,13 +4046,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>365</v>
+      </c>
+      <c r="C30" t="s">
         <v>366</v>
       </c>
-      <c r="C30" t="s">
-        <v>367</v>
-      </c>
       <c r="D30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3960,7 +4064,7 @@
         <v>21</v>
       </c>
       <c r="H30" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -3968,13 +4072,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>367</v>
+      </c>
+      <c r="C31" t="s">
         <v>368</v>
       </c>
-      <c r="C31" t="s">
-        <v>369</v>
-      </c>
       <c r="D31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3986,7 +4090,7 @@
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -3994,13 +4098,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E32">
         <v>30</v>
@@ -4127,10 +4231,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4138,10 +4242,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C10" t="s">
         <v>381</v>
-      </c>
-      <c r="C10" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -4149,10 +4253,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>382</v>
+      </c>
+      <c r="C11" t="s">
         <v>383</v>
-      </c>
-      <c r="C11" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -4160,10 +4264,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -4177,7 +4281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB99EFAB-B000-4606-B7FA-03D380BA5ABF}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -4342,7 +4446,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4450,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4600,7 +4704,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C23" s="9">
         <v>2000</v>
@@ -4774,7 +4878,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C33" s="9">
         <v>10000</v>
@@ -4795,7 +4899,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C34" s="9">
         <v>5000</v>
@@ -4850,7 +4954,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C37">
         <v>200</v>
@@ -4864,7 +4968,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C38">
         <v>50</v>
@@ -4882,10 +4986,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A017588-98F4-4FD4-A257-5EBE77D6705F}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4893,16 +4997,18 @@
     <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="11.75" customWidth="1"/>
     <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="30.25" customWidth="1"/>
+    <col min="6" max="6" width="47.375" customWidth="1"/>
     <col min="7" max="7" width="49" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -4914,13 +5020,19 @@
         <v>246</v>
       </c>
       <c r="F1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G1" t="s">
         <v>326</v>
       </c>
-      <c r="G1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>397</v>
+      </c>
+      <c r="I1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4937,18 +5049,24 @@
         <v>247</v>
       </c>
       <c r="F2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+      <c r="H2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C3" t="s">
         <v>245</v>
@@ -4960,18 +5078,21 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>330</v>
+        <v>404</v>
       </c>
       <c r="G3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C4" t="s">
         <v>248</v>
@@ -4983,18 +5104,21 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>407</v>
       </c>
       <c r="G4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C5" t="s">
         <v>251</v>
@@ -5006,18 +5130,21 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>330</v>
+        <v>405</v>
       </c>
       <c r="G5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C6" t="s">
         <v>252</v>
@@ -5029,18 +5156,21 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>330</v>
+        <v>407</v>
       </c>
       <c r="G6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>423</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C7" t="s">
         <v>253</v>
@@ -5052,18 +5182,21 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>330</v>
+        <v>408</v>
       </c>
       <c r="G7" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
         <v>254</v>
@@ -5075,18 +5208,21 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>408</v>
       </c>
       <c r="G8" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C9" t="s">
         <v>255</v>
@@ -5098,18 +5234,21 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="G9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>411</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C10" t="s">
         <v>256</v>
@@ -5121,18 +5260,21 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C11" t="s">
         <v>258</v>
@@ -5144,18 +5286,21 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>330</v>
+        <v>405</v>
       </c>
       <c r="G11" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>406</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C12" t="s">
         <v>257</v>
@@ -5167,18 +5312,21 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>330</v>
+        <v>417</v>
       </c>
       <c r="G12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C13" t="s">
         <v>259</v>
@@ -5190,18 +5338,24 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>330</v>
+        <v>421</v>
       </c>
       <c r="G13" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C14" t="s">
         <v>261</v>
@@ -5213,18 +5367,21 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>330</v>
+        <v>412</v>
       </c>
       <c r="G14" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C15" t="s">
         <v>260</v>
@@ -5236,18 +5393,21 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>330</v>
+        <v>402</v>
       </c>
       <c r="G15" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>403</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C16" t="s">
         <v>262</v>
@@ -5259,18 +5419,24 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>330</v>
+        <v>421</v>
       </c>
       <c r="G16" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>422</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C17" t="s">
         <v>263</v>
@@ -5282,18 +5448,21 @@
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>330</v>
+        <v>415</v>
       </c>
       <c r="G17" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+      <c r="H17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C18" t="s">
         <v>264</v>
@@ -5305,18 +5474,24 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G18" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C19" t="s">
         <v>265</v>
@@ -5328,18 +5503,21 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>330</v>
+        <v>408</v>
       </c>
       <c r="G19" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>409</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C20" t="s">
         <v>266</v>
@@ -5351,18 +5529,21 @@
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>330</v>
+        <v>414</v>
       </c>
       <c r="G20" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C21" t="s">
         <v>267</v>
@@ -5374,21 +5555,24 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>330</v>
+        <v>417</v>
       </c>
       <c r="G21" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C22" t="s">
-        <v>268</v>
+        <v>399</v>
       </c>
       <c r="D22">
         <v>20</v>
@@ -5397,10 +5581,13 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="G22" t="s">
-        <v>329</v>
+        <v>420</v>
+      </c>
+      <c r="H22">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA48AE9-AF8F-4B82-BAD2-ABC355197CC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AB2A64-4014-4404-B189-8A3AD1722C65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29010" yWindow="-2355" windowWidth="21180" windowHeight="14265" activeTab="4" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="422">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -603,10 +603,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{row:2,col:4}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>quality</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1657,10 +1653,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[[2,0,2][2,5,0]]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[0,1,0,1,0],[0,1,0,1,0],[0,1,0,1,0],[0,1,0,1,0],[0,1,0,1,0],[0,1,0,1,0]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1697,22 +1689,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[[0,0,1],[0,2,4],[2,2,1],[2,5,0]],[[4,0,1],[4,2,3],[2,2,1],[2,5,0]]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[0,1,1,1,0],[0,1,1,1,0],[0,0,0,0,0],[1,1,0,1,1],[1,1,0,1,1],[1,1,0,1,1]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[[[0,0,2],[0,2,4],[2,2,1],[2,5,0]],[[4,0,2],[4,2,3],[2,2,1],[2,5,0]]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[[5,0,2],[5,2,3],[0,2,2],[0,5,4],[2,5,0]]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[[0,0,0,0,0],[0,0,0,0,0],[0,0,0,0,0],[0,1,1,1,1],[0,1,1,1,1],[0,0,0,1,1]]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1742,6 +1722,18 @@
   </si>
   <si>
     <t>[[0,0,0,0,0],[0,1,1,1,0],[0,1,1,1,0],[0,1,1,1,0],[0,1,1,1,0],[0,0,0,0,0]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[0,0,2],[0,2,4],[2,2,2],[2,5,0]],[[4,0,2],[4,2,3],[2,2,2],[2,5,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[4,0,2],[4,2,3],[0,2,2],[0,5,4],[2,5,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{row:2,col:2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2236,7 +2228,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2259,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2280,7 +2272,7 @@
         <v>102</v>
       </c>
       <c r="I1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J1" t="s">
         <v>27</v>
@@ -2294,10 +2286,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -2315,7 +2307,7 @@
         <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J2" t="s">
         <v>26</v>
@@ -2332,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2344,10 +2336,10 @@
         <v>0.8</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -2364,7 +2356,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -2376,13 +2368,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H4" t="s">
         <v>104</v>
       </c>
       <c r="I4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -2399,7 +2391,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -2411,10 +2403,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J5">
         <v>6</v>
@@ -2431,10 +2423,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -2443,10 +2435,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -2463,10 +2455,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -2475,10 +2467,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -2495,7 +2487,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
         <v>43</v>
@@ -2507,10 +2499,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -2527,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
         <v>44</v>
@@ -2539,10 +2531,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -2559,7 +2551,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
         <v>45</v>
@@ -2571,10 +2563,10 @@
         <v>1.4</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -2591,10 +2583,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -2603,10 +2595,10 @@
         <v>1.4</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -2623,10 +2615,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2635,16 +2627,16 @@
         <v>99999999</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2655,7 +2647,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" t="s">
         <v>46</v>
@@ -2667,10 +2659,10 @@
         <v>1.2</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -2687,10 +2679,10 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E14">
         <v>45</v>
@@ -2699,10 +2691,10 @@
         <v>1.2</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -2719,7 +2711,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
         <v>47</v>
@@ -2731,10 +2723,10 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -2751,7 +2743,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D16" t="s">
         <v>48</v>
@@ -2763,10 +2755,10 @@
         <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J16">
         <v>6</v>
@@ -2783,7 +2775,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17" t="s">
         <v>51</v>
@@ -2795,10 +2787,10 @@
         <v>2</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J17">
         <v>6</v>
@@ -2815,7 +2807,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" t="s">
         <v>62</v>
@@ -2827,10 +2819,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -2847,7 +2839,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D19" t="s">
         <v>75</v>
@@ -2859,10 +2851,10 @@
         <v>1.2</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I19" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2879,7 +2871,7 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
         <v>79</v>
@@ -2891,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J20">
         <v>3</v>
@@ -2911,7 +2903,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D21" t="s">
         <v>63</v>
@@ -2923,10 +2915,10 @@
         <v>1.5</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -2943,7 +2935,7 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D22" t="s">
         <v>74</v>
@@ -2955,10 +2947,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -2975,7 +2967,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" t="s">
         <v>73</v>
@@ -2987,10 +2979,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I23" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -3007,10 +2999,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -3019,10 +3011,10 @@
         <v>2</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J24">
         <v>6</v>
@@ -3036,10 +3028,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E25">
         <v>50</v>
@@ -3048,16 +3040,16 @@
         <v>0.4</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J25">
         <v>5</v>
       </c>
       <c r="K25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -3068,10 +3060,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E26">
         <v>75</v>
@@ -3080,10 +3072,10 @@
         <v>1.3</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -3097,10 +3089,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E27">
         <v>70</v>
@@ -3109,10 +3101,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -3126,10 +3118,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E28">
         <v>50</v>
@@ -3138,10 +3130,10 @@
         <v>1</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I28" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J28">
         <v>6</v>
@@ -3155,10 +3147,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E29">
         <v>85</v>
@@ -3167,10 +3159,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I29" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J29">
         <v>6</v>
@@ -3184,10 +3176,10 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -3196,10 +3188,10 @@
         <v>1.5</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I30" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J30">
         <v>6</v>
@@ -3213,10 +3205,10 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E31">
         <v>80</v>
@@ -3225,10 +3217,10 @@
         <v>2</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J31">
         <v>6</v>
@@ -3245,10 +3237,10 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E32">
         <v>100</v>
@@ -3257,10 +3249,10 @@
         <v>2</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -3277,9 +3269,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1917D1-1E80-49DA-BCD2-DF0A5B07018B}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3304,7 +3296,7 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E1" t="s">
         <v>37</v>
@@ -3330,7 +3322,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
@@ -3356,7 +3348,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3382,7 +3374,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3394,7 +3386,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3408,7 +3400,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -3434,7 +3426,7 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3460,7 +3452,7 @@
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3486,7 +3478,7 @@
         <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3498,7 +3490,7 @@
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3512,7 +3504,7 @@
         <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3538,7 +3530,7 @@
         <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3564,7 +3556,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3590,7 +3582,7 @@
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3616,7 +3608,7 @@
         <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E13">
         <v>40</v>
@@ -3642,7 +3634,7 @@
         <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3654,7 +3646,7 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3668,7 +3660,7 @@
         <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3680,7 +3672,7 @@
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3694,7 +3686,7 @@
         <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3706,7 +3698,7 @@
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3720,7 +3712,7 @@
         <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3732,7 +3724,7 @@
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3746,7 +3738,7 @@
         <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3772,7 +3764,7 @@
         <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3798,7 +3790,7 @@
         <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3824,7 +3816,7 @@
         <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3847,7 +3839,7 @@
         <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -3873,7 +3865,7 @@
         <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3885,7 +3877,7 @@
         <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>130</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3893,13 +3885,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>349</v>
+      </c>
+      <c r="C24" t="s">
         <v>350</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>351</v>
-      </c>
-      <c r="D24" t="s">
-        <v>352</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3911,7 +3903,7 @@
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3919,13 +3911,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>352</v>
+      </c>
+      <c r="C25" t="s">
         <v>353</v>
       </c>
-      <c r="C25" t="s">
-        <v>354</v>
-      </c>
       <c r="D25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3942,13 +3934,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>354</v>
+      </c>
+      <c r="C26" t="s">
         <v>355</v>
       </c>
-      <c r="C26" t="s">
-        <v>356</v>
-      </c>
       <c r="D26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3960,7 +3952,7 @@
         <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3968,13 +3960,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>356</v>
+      </c>
+      <c r="C27" t="s">
         <v>357</v>
       </c>
-      <c r="C27" t="s">
-        <v>358</v>
-      </c>
       <c r="D27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3986,7 +3978,7 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3994,13 +3986,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4012,7 +4004,7 @@
         <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -4020,13 +4012,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4038,7 +4030,7 @@
         <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -4046,13 +4038,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>364</v>
+      </c>
+      <c r="C30" t="s">
         <v>365</v>
       </c>
-      <c r="C30" t="s">
-        <v>366</v>
-      </c>
       <c r="D30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4064,7 +4056,7 @@
         <v>21</v>
       </c>
       <c r="H30" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -4072,13 +4064,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>366</v>
+      </c>
+      <c r="C31" t="s">
         <v>367</v>
       </c>
-      <c r="C31" t="s">
-        <v>368</v>
-      </c>
       <c r="D31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4090,7 +4082,7 @@
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -4098,13 +4090,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E32">
         <v>30</v>
@@ -4223,7 +4215,7 @@
         <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -4231,10 +4223,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4242,10 +4234,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C10" t="s">
         <v>380</v>
-      </c>
-      <c r="C10" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -4253,10 +4245,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C11" t="s">
         <v>382</v>
-      </c>
-      <c r="C11" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -4264,10 +4256,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -4297,48 +4289,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" t="s">
         <v>161</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" t="s">
         <v>162</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>227</v>
       </c>
-      <c r="D1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" t="s">
-        <v>228</v>
-      </c>
       <c r="F1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s">
         <v>164</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" t="s">
         <v>165</v>
       </c>
-      <c r="C2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" t="s">
-        <v>166</v>
-      </c>
       <c r="E2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4346,13 +4338,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -4363,13 +4355,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4">
         <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -4380,13 +4372,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5">
         <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -4397,13 +4389,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C6">
         <v>400</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -4414,13 +4406,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C7">
         <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -4431,13 +4423,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C8" s="9">
         <v>1000</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E8" s="9">
         <v>0.5</v>
@@ -4446,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4454,13 +4446,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9">
         <v>400</v>
       </c>
       <c r="D9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E9">
         <v>2.5</v>
@@ -4471,13 +4463,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C10">
         <v>600</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E10">
         <v>1.2</v>
@@ -4488,13 +4480,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C11">
         <v>200</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4505,13 +4497,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C12">
         <v>300</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E12">
         <v>0.8</v>
@@ -4522,13 +4514,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C13">
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -4539,13 +4531,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C14" s="9">
         <v>2000</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E14" s="9">
         <v>0.4</v>
@@ -4554,7 +4546,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4562,13 +4554,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15">
         <v>300</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E15">
         <v>1.5</v>
@@ -4579,13 +4571,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C16">
         <v>500</v>
       </c>
       <c r="D16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E16">
         <v>0.8</v>
@@ -4596,13 +4588,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C17">
         <v>800</v>
       </c>
       <c r="D17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -4613,13 +4605,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C18">
         <v>1000</v>
       </c>
       <c r="D18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E18">
         <v>1.8</v>
@@ -4630,13 +4622,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C19">
         <v>1000</v>
       </c>
       <c r="D19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -4647,13 +4639,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C20" s="9">
         <v>3000</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E20" s="9">
         <v>1</v>
@@ -4662,7 +4654,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4670,13 +4662,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C21">
         <v>1000</v>
       </c>
       <c r="D21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E21">
         <v>0.2</v>
@@ -4687,13 +4679,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C22">
         <v>500</v>
       </c>
       <c r="D22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -4704,7 +4696,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C23" s="9">
         <v>2000</v>
@@ -4717,7 +4709,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -4725,13 +4717,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C24">
         <v>300</v>
       </c>
       <c r="D24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -4742,13 +4734,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C25">
         <v>200</v>
       </c>
       <c r="D25" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -4759,13 +4751,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C26">
         <v>800</v>
       </c>
       <c r="D26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -4776,13 +4768,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C27">
         <v>1000</v>
       </c>
       <c r="D27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -4793,13 +4785,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C28">
         <v>600</v>
       </c>
       <c r="D28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E28">
         <v>0.2</v>
@@ -4810,13 +4802,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C29">
         <v>800</v>
       </c>
       <c r="D29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E29">
         <v>0.3</v>
@@ -4827,13 +4819,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C30">
         <v>300</v>
       </c>
       <c r="D30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E30">
         <v>1.9</v>
@@ -4844,13 +4836,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C31">
         <v>500</v>
       </c>
       <c r="D31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -4861,13 +4853,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C32">
         <v>500</v>
       </c>
       <c r="D32" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E32">
         <v>0.8</v>
@@ -4878,7 +4870,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C33" s="9">
         <v>10000</v>
@@ -4891,7 +4883,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -4899,7 +4891,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C34" s="9">
         <v>5000</v>
@@ -4912,7 +4904,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -4920,13 +4912,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C35">
         <v>800</v>
       </c>
       <c r="D35" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E35">
         <v>0.9</v>
@@ -4937,13 +4929,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C36">
         <v>900</v>
       </c>
       <c r="D36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -4954,7 +4946,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C37">
         <v>200</v>
@@ -4968,7 +4960,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C38">
         <v>50</v>
@@ -4988,8 +4980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A017588-98F4-4FD4-A257-5EBE77D6705F}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5008,28 +5000,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G1" t="s">
         <v>325</v>
       </c>
-      <c r="G1" t="s">
-        <v>326</v>
-      </c>
       <c r="H1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -5037,28 +5029,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5066,10 +5058,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5078,10 +5070,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -5092,10 +5084,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -5104,10 +5096,10 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G4" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -5118,10 +5110,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -5130,10 +5122,10 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G5" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -5144,10 +5136,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -5156,10 +5148,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G6" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -5170,10 +5162,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -5182,10 +5174,10 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -5196,10 +5188,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -5208,10 +5200,10 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G8" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -5222,10 +5214,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -5234,10 +5226,10 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G9" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -5248,10 +5240,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -5260,10 +5252,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H10">
         <v>6</v>
@@ -5274,10 +5266,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -5286,10 +5278,10 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G11" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -5300,10 +5292,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -5312,10 +5304,10 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G12" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -5326,10 +5318,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D13">
         <v>11</v>
@@ -5338,10 +5330,10 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G13" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="H13">
         <v>12</v>
@@ -5355,10 +5347,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -5367,10 +5359,10 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="G14" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H14">
         <v>8</v>
@@ -5381,10 +5373,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -5396,7 +5388,7 @@
         <v>402</v>
       </c>
       <c r="G15" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -5407,10 +5399,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D16">
         <v>14</v>
@@ -5419,10 +5411,10 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G16" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="H16">
         <v>12</v>
@@ -5436,10 +5428,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D17">
         <v>15</v>
@@ -5448,10 +5440,10 @@
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="G17" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H17">
         <v>9</v>
@@ -5462,10 +5454,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D18">
         <v>16</v>
@@ -5474,10 +5466,10 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -5491,10 +5483,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D19">
         <v>17</v>
@@ -5503,10 +5495,10 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G19" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -5517,10 +5509,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D20">
         <v>18</v>
@@ -5529,10 +5521,10 @@
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="G20" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H20">
         <v>8</v>
@@ -5543,10 +5535,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D21">
         <v>19</v>
@@ -5555,10 +5547,10 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G21" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="H21">
         <v>10</v>
@@ -5569,10 +5561,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D22">
         <v>20</v>
@@ -5581,10 +5573,10 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G22" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="H22">
         <v>11</v>

--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AB2A64-4014-4404-B189-8A3AD1722C65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CBAF95-B0A4-4918-A1AC-7CFE1061AD8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
+    <workbookView xWindow="4710" yWindow="915" windowWidth="21180" windowHeight="14265" activeTab="3" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -1162,10 +1162,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1,5,7,6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[7,33,11,21]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1734,6 +1730,10 @@
   </si>
   <si>
     <t>{row:2,col:2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,5,36,6]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2272,7 +2272,7 @@
         <v>102</v>
       </c>
       <c r="I1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J1" t="s">
         <v>27</v>
@@ -2307,7 +2307,7 @@
         <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J2" t="s">
         <v>26</v>
@@ -2339,7 +2339,7 @@
         <v>133</v>
       </c>
       <c r="I3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -2374,7 +2374,7 @@
         <v>104</v>
       </c>
       <c r="I4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -2406,7 +2406,7 @@
         <v>146</v>
       </c>
       <c r="I5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J5">
         <v>6</v>
@@ -2426,7 +2426,7 @@
         <v>140</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -2438,7 +2438,7 @@
         <v>230</v>
       </c>
       <c r="I6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -2470,7 +2470,7 @@
         <v>147</v>
       </c>
       <c r="I7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -2502,7 +2502,7 @@
         <v>233</v>
       </c>
       <c r="I8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -2534,7 +2534,7 @@
         <v>150</v>
       </c>
       <c r="I9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -2566,7 +2566,7 @@
         <v>156</v>
       </c>
       <c r="I10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -2586,7 +2586,7 @@
         <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -2598,7 +2598,7 @@
         <v>229</v>
       </c>
       <c r="I11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -2618,7 +2618,7 @@
         <v>138</v>
       </c>
       <c r="D12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2630,13 +2630,13 @@
         <v>151</v>
       </c>
       <c r="I12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2662,7 +2662,7 @@
         <v>231</v>
       </c>
       <c r="I13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -2682,7 +2682,7 @@
         <v>139</v>
       </c>
       <c r="D14" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E14">
         <v>45</v>
@@ -2694,7 +2694,7 @@
         <v>159</v>
       </c>
       <c r="I14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -2726,7 +2726,7 @@
         <v>148</v>
       </c>
       <c r="I15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -2758,7 +2758,7 @@
         <v>132</v>
       </c>
       <c r="I16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J16">
         <v>6</v>
@@ -2790,7 +2790,7 @@
         <v>155</v>
       </c>
       <c r="I17" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J17">
         <v>6</v>
@@ -2822,7 +2822,7 @@
         <v>152</v>
       </c>
       <c r="I18" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -2854,7 +2854,7 @@
         <v>149</v>
       </c>
       <c r="I19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2886,7 +2886,7 @@
         <v>232</v>
       </c>
       <c r="I20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J20">
         <v>3</v>
@@ -2918,7 +2918,7 @@
         <v>153</v>
       </c>
       <c r="I21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -2950,7 +2950,7 @@
         <v>154</v>
       </c>
       <c r="I22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -2982,7 +2982,7 @@
         <v>157</v>
       </c>
       <c r="I23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -3002,7 +3002,7 @@
         <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -3011,10 +3011,10 @@
         <v>2</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J24">
         <v>6</v>
@@ -3031,7 +3031,7 @@
         <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E25">
         <v>50</v>
@@ -3040,16 +3040,16 @@
         <v>0.4</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J25">
         <v>5</v>
       </c>
       <c r="K25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -3063,7 +3063,7 @@
         <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E26">
         <v>75</v>
@@ -3072,10 +3072,10 @@
         <v>1.3</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I26" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -3092,7 +3092,7 @@
         <v>139</v>
       </c>
       <c r="D27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E27">
         <v>70</v>
@@ -3101,10 +3101,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -3121,7 +3121,7 @@
         <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E28">
         <v>50</v>
@@ -3130,10 +3130,10 @@
         <v>1</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J28">
         <v>6</v>
@@ -3150,7 +3150,7 @@
         <v>140</v>
       </c>
       <c r="D29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E29">
         <v>85</v>
@@ -3159,10 +3159,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J29">
         <v>6</v>
@@ -3179,7 +3179,7 @@
         <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -3188,10 +3188,10 @@
         <v>1.5</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J30">
         <v>6</v>
@@ -3208,7 +3208,7 @@
         <v>140</v>
       </c>
       <c r="D31" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E31">
         <v>80</v>
@@ -3217,10 +3217,10 @@
         <v>2</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J31">
         <v>6</v>
@@ -3237,10 +3237,10 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E32">
         <v>100</v>
@@ -3249,10 +3249,10 @@
         <v>2</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -3269,7 +3269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1917D1-1E80-49DA-BCD2-DF0A5B07018B}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
@@ -3296,7 +3296,7 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E1" t="s">
         <v>37</v>
@@ -3322,7 +3322,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E2" t="s">
         <v>38</v>
@@ -3348,7 +3348,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3374,7 +3374,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -3426,7 +3426,7 @@
         <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3504,7 +3504,7 @@
         <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3530,7 +3530,7 @@
         <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3608,7 +3608,7 @@
         <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E13">
         <v>40</v>
@@ -3634,7 +3634,7 @@
         <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3646,7 +3646,7 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3660,7 +3660,7 @@
         <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3686,7 +3686,7 @@
         <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3738,7 +3738,7 @@
         <v>99</v>
       </c>
       <c r="D18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3764,7 +3764,7 @@
         <v>112</v>
       </c>
       <c r="D19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3816,7 +3816,7 @@
         <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -3865,7 +3865,7 @@
         <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3877,7 +3877,7 @@
         <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3885,13 +3885,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>348</v>
+      </c>
+      <c r="C24" t="s">
         <v>349</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>350</v>
-      </c>
-      <c r="D24" t="s">
-        <v>351</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3911,13 +3911,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>351</v>
+      </c>
+      <c r="C25" t="s">
         <v>352</v>
       </c>
-      <c r="C25" t="s">
-        <v>353</v>
-      </c>
       <c r="D25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3934,13 +3934,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>353</v>
+      </c>
+      <c r="C26" t="s">
         <v>354</v>
       </c>
-      <c r="C26" t="s">
-        <v>355</v>
-      </c>
       <c r="D26" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3960,13 +3960,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>355</v>
+      </c>
+      <c r="C27" t="s">
         <v>356</v>
       </c>
-      <c r="C27" t="s">
-        <v>357</v>
-      </c>
       <c r="D27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3978,7 +3978,7 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3986,13 +3986,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -4012,13 +4012,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -4038,13 +4038,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>363</v>
+      </c>
+      <c r="C30" t="s">
         <v>364</v>
       </c>
-      <c r="C30" t="s">
-        <v>365</v>
-      </c>
       <c r="D30" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4056,7 +4056,7 @@
         <v>21</v>
       </c>
       <c r="H30" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -4064,13 +4064,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>365</v>
+      </c>
+      <c r="C31" t="s">
         <v>366</v>
       </c>
-      <c r="C31" t="s">
-        <v>367</v>
-      </c>
       <c r="D31" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4082,7 +4082,7 @@
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -4090,13 +4090,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C32" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E32">
         <v>30</v>
@@ -4223,10 +4223,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4234,10 +4234,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" t="s">
         <v>379</v>
-      </c>
-      <c r="C10" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -4245,10 +4245,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C11" t="s">
         <v>381</v>
-      </c>
-      <c r="C11" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -4256,10 +4256,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -4273,8 +4273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB99EFAB-B000-4606-B7FA-03D380BA5ABF}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4392,7 +4392,7 @@
         <v>172</v>
       </c>
       <c r="C6">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="D6" t="s">
         <v>173</v>
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4449,7 +4449,7 @@
         <v>223</v>
       </c>
       <c r="C9">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D9" t="s">
         <v>224</v>
@@ -4466,7 +4466,7 @@
         <v>177</v>
       </c>
       <c r="C10">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="D10" t="s">
         <v>178</v>
@@ -4546,7 +4546,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4696,7 +4696,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C23" s="9">
         <v>2000</v>
@@ -4870,7 +4870,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C33" s="9">
         <v>10000</v>
@@ -4891,7 +4891,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C34" s="9">
         <v>5000</v>
@@ -4960,7 +4960,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C38">
         <v>50</v>
@@ -4981,7 +4981,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -5012,16 +5012,16 @@
         <v>245</v>
       </c>
       <c r="F1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" t="s">
         <v>324</v>
       </c>
-      <c r="G1" t="s">
-        <v>325</v>
-      </c>
       <c r="H1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -5041,16 +5041,16 @@
         <v>246</v>
       </c>
       <c r="F2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>281</v>
+        <v>421</v>
       </c>
       <c r="C3" t="s">
         <v>244</v>
@@ -5070,10 +5070,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -5096,10 +5096,10 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -5122,10 +5122,10 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
+        <v>402</v>
+      </c>
+      <c r="G5" t="s">
         <v>403</v>
-      </c>
-      <c r="G5" t="s">
-        <v>404</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -5148,10 +5148,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -5162,7 +5162,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C7" t="s">
         <v>252</v>
@@ -5174,10 +5174,10 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G7" t="s">
         <v>406</v>
-      </c>
-      <c r="G7" t="s">
-        <v>407</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -5200,10 +5200,10 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G8" t="s">
         <v>406</v>
-      </c>
-      <c r="G8" t="s">
-        <v>407</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -5214,7 +5214,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C9" t="s">
         <v>254</v>
@@ -5226,10 +5226,10 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
+        <v>407</v>
+      </c>
+      <c r="G9" t="s">
         <v>408</v>
-      </c>
-      <c r="G9" t="s">
-        <v>409</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -5252,10 +5252,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H10">
         <v>6</v>
@@ -5278,10 +5278,10 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
+        <v>402</v>
+      </c>
+      <c r="G11" t="s">
         <v>403</v>
-      </c>
-      <c r="G11" t="s">
-        <v>404</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -5304,10 +5304,10 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
+        <v>411</v>
+      </c>
+      <c r="G12" t="s">
         <v>412</v>
-      </c>
-      <c r="G12" t="s">
-        <v>413</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -5318,7 +5318,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C13" t="s">
         <v>258</v>
@@ -5330,10 +5330,10 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
+        <v>415</v>
+      </c>
+      <c r="G13" t="s">
         <v>416</v>
-      </c>
-      <c r="G13" t="s">
-        <v>417</v>
       </c>
       <c r="H13">
         <v>12</v>
@@ -5359,10 +5359,10 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H14">
         <v>8</v>
@@ -5385,10 +5385,10 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -5411,10 +5411,10 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
+        <v>415</v>
+      </c>
+      <c r="G16" t="s">
         <v>416</v>
-      </c>
-      <c r="G16" t="s">
-        <v>417</v>
       </c>
       <c r="H16">
         <v>12</v>
@@ -5428,7 +5428,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C17" t="s">
         <v>262</v>
@@ -5440,10 +5440,10 @@
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G17" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H17">
         <v>9</v>
@@ -5466,10 +5466,10 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -5495,10 +5495,10 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
+        <v>405</v>
+      </c>
+      <c r="G19" t="s">
         <v>406</v>
-      </c>
-      <c r="G19" t="s">
-        <v>407</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -5509,7 +5509,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C20" t="s">
         <v>265</v>
@@ -5521,10 +5521,10 @@
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G20" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H20">
         <v>8</v>
@@ -5547,10 +5547,10 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
+        <v>411</v>
+      </c>
+      <c r="G21" t="s">
         <v>412</v>
-      </c>
-      <c r="G21" t="s">
-        <v>413</v>
       </c>
       <c r="H21">
         <v>10</v>
@@ -5561,10 +5561,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D22">
         <v>20</v>
@@ -5573,10 +5573,10 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
+        <v>413</v>
+      </c>
+      <c r="G22" t="s">
         <v>414</v>
-      </c>
-      <c r="G22" t="s">
-        <v>415</v>
       </c>
       <c r="H22">
         <v>11</v>

--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CBAF95-B0A4-4918-A1AC-7CFE1061AD8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4D0966-1AD4-4C66-9686-C5C2F79CDA68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="915" windowWidth="21180" windowHeight="14265" activeTab="3" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
+    <workbookView xWindow="5865" yWindow="1230" windowWidth="21180" windowHeight="14265" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="423">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1734,6 +1734,10 @@
   </si>
   <si>
     <t>[1,5,36,6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,0,3]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2227,9 +2231,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D0E652-86CF-433A-BD6F-177C0A6FDF59}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2374,7 +2378,7 @@
         <v>104</v>
       </c>
       <c r="I4" t="s">
-        <v>303</v>
+        <v>422</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -2598,7 +2602,7 @@
         <v>229</v>
       </c>
       <c r="I11" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -4273,7 +4277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB99EFAB-B000-4606-B7FA-03D380BA5ABF}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>

--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4D0966-1AD4-4C66-9686-C5C2F79CDA68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6675F739-CF4A-4709-B483-72D56FF445C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="1230" windowWidth="21180" windowHeight="14265" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="424">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,10 +164,6 @@
   </si>
   <si>
     <t>{cold:4,num:3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动技能，间隔一段时间产出阳光,升星星可以增加产出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -471,10 +467,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被动技能，当前名声越大，攻击力越高！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>深藏功与名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -692,12 +684,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#412900&gt;拥有超高的治疗技巧
-每隔一定时间生产名誉
-即使不会攻击也无所谓吧？&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#412900&gt;用神秘的力量弱化一个敌人
 被弱化的敌人会受到更多伤害&lt;/c&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -729,11 +715,6 @@
   </si>
   <si>
     <t>飞行员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#412900&gt;根据当前的名誉提高攻击力
-只要名誉足够，就可以非常强力&lt;/c&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1410,334 +1391,356 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#412900&gt;合成时会获得名誉
+    <t>P90!Rush B!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[19,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[11,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[13,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金梦想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>life</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，解除队友身上的负面效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS杀手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，对boss的伤害随着星星的提升而提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超威蓝猫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷窃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，击杀敌人都会给全体吴克增加攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>death</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，击杀敌人时获得更多的名誉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，暴击伤害增加，暴击概率增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡之眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，赋予周围角色概率秒杀敌人的能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动技能，将指定角色替换为指定角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{num:60}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{num:100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{cold:10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{num:50,add:10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒杀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{buff:7,targetType:3,time:99999999}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{num:3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{str:'kill',num:1.5,add:0.4}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{damage:300,num:10,add:5}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{str:'atkspd',num:-20,add:0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恐吓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{str:'atk',num:-20,add:0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千骸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡渡鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;可以解除同伴身上的异常状态哦，
+星星越多解除的人数越多哦&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;暴击伤害翻倍
+升星能增加暴击概率&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;赋予周围概率秒杀敌人的能力
+即使是范围攻击也可以轻易秒杀&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;赋予将角色替换为其他角色的技能
+并且为其净化掉所有buff&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;最喜欢打boss了
+对&lt;color=#FF0E0E&gt;Boss&lt;/color&gt;造成多倍伤害&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;最后一击击杀怪物时&lt;color=#FFE81A&gt;偷窃&lt;/color&gt;,
+可以获得超多金币哦&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{str:'atk',num:0,add:3}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg#number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永夜之境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>底座</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>land#number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,1,0,1,0],[0,1,0,1,0],[0,1,0,1,0],[0,1,0,1,0],[0,1,0,1,0],[0,1,0,1,0]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[2,0,2],[2,5,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[4,0,2],[4,1,3],[0,1,0]],[[4,5,1],[4,4,3],[0,4,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,0,0,0,0],[0,0,0,0,0],[0,0,1,1,1],[0,0,1,1,1],[0,0,0,0,0],[0,0,0,0,0]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[4,4,1],[4,0,3],[0,0,2],[0,5,4],[2,5,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[4,0,2],[4,1,3],[3,1,2],[3,2,3],[2,2,2],[2,3,3],[1,3,2],[1,4,3],[0,4,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,1,1,1,0],[1,1,1,0,0],[1,1,0,0,0],[1,0,0,1,0],[0,0,1,1,0],[1,1,0,0,0]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[1,0,2],[1,5,0]],[[3,0,2],[3,5,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,0,0,0,1],[1,0,0,0,1],[1,0,0,0,1],[1,0,0,0,1],[1,0,0,0,1],[1,0,0,0,1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,1,1,1,0],[0,1,1,1,0],[0,0,0,0,0],[1,1,0,1,1],[1,1,0,1,1],[1,1,0,1,1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,0,0,0,0],[0,0,0,0,0],[0,0,0,0,0],[0,1,1,1,1],[0,1,1,1,1],[0,0,0,1,1]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[0,0,2],[0,1,4],[1,1,2],[1,2,4],[2,2,2],[2,3,4],[3,3,2],[3,4,4],[4,4,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,1,1,1,0],[0,0,1,1,1],[1,0,0,1,1],[1,1,0,0,1],[1,1,1,0,0],[0,0,0,0,0]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[2,0,2],[2,1,4],[2,1,4],[4,1,2],[4,4,3],[2,4,2],[2,5,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,1,0,0,0],[1,1,0,0,0],[0,0,1,1,0],[0,0,1,1,0],[1,1,0,0,0],[1,1,0,0,0]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[0,1,4],[4,1,0]],[[0,3,4],[4,3,0]],[[0,5,4],[4,5,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[1,1,1,1,1],[0,0,0,0,0],[1,1,1,1,1],[0,0,0,0,0],[1,1,1,1,1],[0,0,0,0,0]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[0,0,0,0,0],[0,1,1,1,0],[0,1,1,1,0],[0,1,1,1,0],[0,1,1,1,0],[0,0,0,0,0]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[0,0,2],[0,2,4],[2,2,2],[2,5,0]],[[4,0,2],[4,2,3],[2,2,2],[2,5,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[[[4,0,2],[4,2,3],[0,2,2],[0,5,4],[2,5,0]]]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{row:2,col:2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,5,36,6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,0,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;拥有超高的治疗技巧
+每隔一定时间生产魂
+即使不会攻击也无所谓吧？&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;杀敌后所有吴克都加一层buff
+千千万万个吴克站起来&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;合成时会获得打工魂
 星星越多获得的越多&lt;/c&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P90!Rush B!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[19,0,0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[11,0,0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[13,0,0]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄金梦想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动技能，合成时生成名誉，随星星的提升而提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>life</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RUSH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动技能，可以与他人交换位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>净化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动技能，解除队友身上的负面效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS杀手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动技能，对boss的伤害随着星星的提升而提升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超威蓝猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偷窃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动技能，击杀敌人都会给全体吴克增加攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>death</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动技能，击杀敌人时获得更多的名誉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动技能，暴击伤害增加，暴击概率增加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡之眼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动技能，赋予周围角色概率秒杀敌人的能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动技能，将指定角色替换为指定角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{num:60}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{num:100}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{cold:10}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{num:50,add:10}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秒杀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{buff:7,targetType:3,time:99999999}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{num:3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{str:'kill',num:1.5,add:0.4}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{damage:300,num:10,add:5}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>寒冷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{str:'atkspd',num:-20,add:0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恐吓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{str:'atk',num:-20,add:0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>千骸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>史莱姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渡渡鸟</t>
+    <t>&lt;color=#412900&gt;根据当前的打工魂提高攻击力
+只要打工魂足够，就可以非常强力&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，当前打工魂越大，攻击力越高！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，间隔一段时间产出打工魂,升星星可以增加产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，合成时生成打工魂，随星星的提升而提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7,22,0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;color=#412900&gt;超快的攻击速度！
 随机攻击敌人
-与不能合成的角色交换位置&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#412900&gt;可以解除同伴身上的异常状态哦，
-星星越多解除的人数越多哦&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#412900&gt;杀敌后所有吴克都加一层buff
-一个吴克倒下了
-千千万万个吴克站起来&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#412900&gt;暴击伤害翻倍
-升星能增加暴击概率&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#412900&gt;赋予周围概率秒杀敌人的能力
-即使是范围攻击也可以轻易秒杀&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#412900&gt;赋予将角色替换为其他角色的技能
-并且为其净化掉所有buff&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#412900&gt;最喜欢打boss了
-对&lt;color=#FF0E0E&gt;Boss&lt;/color&gt;造成多倍伤害&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#412900&gt;最后一击击杀怪物时&lt;color=#FFE81A&gt;偷窃&lt;/color&gt;,
-可以获得超多金币哦&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{str:'atk',num:0,add:3}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bg#number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>永夜之境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>底座</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>land#number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,1,0,1,0],[0,1,0,1,0],[0,1,0,1,0],[0,1,0,1,0],[0,1,0,1,0],[0,1,0,1,0]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[[2,0,2],[2,5,0]]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[[4,0,2],[4,1,3],[0,1,0]],[[4,5,1],[4,4,3],[0,4,0]]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,0,0,0,0],[0,0,0,0,0],[0,0,1,1,1],[0,0,1,1,1],[0,0,0,0,0],[0,0,0,0,0]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[[4,4,1],[4,0,3],[0,0,2],[0,5,4],[2,5,0]]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[[4,0,2],[4,1,3],[3,1,2],[3,2,3],[2,2,2],[2,3,3],[1,3,2],[1,4,3],[0,4,0]]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,1,1,1,0],[1,1,1,0,0],[1,1,0,0,0],[1,0,0,1,0],[0,0,1,1,0],[1,1,0,0,0]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[[1,0,2],[1,5,0]],[[3,0,2],[3,5,0]]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1,0,0,0,1],[1,0,0,0,1],[1,0,0,0,1],[1,0,0,0,1],[1,0,0,0,1],[1,0,0,0,1]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,1,1,1,0],[0,1,1,1,0],[0,0,0,0,0],[1,1,0,1,1],[1,1,0,1,1],[1,1,0,1,1]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,0,0,0,0],[0,0,0,0,0],[0,0,0,0,0],[0,1,1,1,1],[0,1,1,1,1],[0,0,0,1,1]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[[0,0,2],[0,1,4],[1,1,2],[1,2,4],[2,2,2],[2,3,4],[3,3,2],[3,4,4],[4,4,0]]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,1,1,1,0],[0,0,1,1,1],[1,0,0,1,1],[1,1,0,0,1],[1,1,1,0,0],[0,0,0,0,0]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[[2,0,2],[2,1,4],[2,1,4],[4,1,2],[4,4,3],[2,4,2],[2,5,0]]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1,1,0,0,0],[1,1,0,0,0],[0,0,1,1,0],[0,0,1,1,0],[1,1,0,0,0],[1,1,0,0,0]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[[0,1,4],[4,1,0]],[[0,3,4],[4,3,0]],[[0,5,4],[4,5,0]]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[1,1,1,1,1],[0,0,0,0,0],[1,1,1,1,1],[0,0,0,0,0],[1,1,1,1,1],[0,0,0,0,0]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[0,0,0,0,0],[0,1,1,1,0],[0,1,1,1,0],[0,1,1,1,0],[0,1,1,1,0],[0,0,0,0,0]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[[0,0,2],[0,2,4],[2,2,2],[2,5,0]],[[4,0,2],[4,2,3],[2,2,2],[2,5,0]]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[[[4,0,2],[4,2,3],[0,2,2],[0,5,4],[2,5,0]]]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{row:2,col:2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,5,36,6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0,0,3]</t>
+与星星相同的角色交换位置&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动技能，可以与星星相同的人交换位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2231,9 +2234,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D0E652-86CF-433A-BD6F-177C0A6FDF59}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2255,10 +2258,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2273,16 +2276,16 @@
         <v>8</v>
       </c>
       <c r="H1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="J1" t="s">
         <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2290,10 +2293,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -2308,16 +2311,16 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="J2" t="s">
         <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2328,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -2340,16 +2343,16 @@
         <v>0.8</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2360,7 +2363,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -2372,19 +2375,19 @@
         <v>2</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I4" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2395,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -2407,16 +2410,16 @@
         <v>1</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2427,10 +2430,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -2439,16 +2442,16 @@
         <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="I6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2459,10 +2462,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -2471,16 +2474,16 @@
         <v>1</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
@@ -2491,10 +2494,10 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>80</v>
@@ -2503,16 +2506,16 @@
         <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I8" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J8">
         <v>7</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2523,10 +2526,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>40</v>
@@ -2535,16 +2538,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2555,10 +2558,10 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>30</v>
@@ -2567,16 +2570,16 @@
         <v>1.4</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I10" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2587,10 +2590,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -2599,16 +2602,16 @@
         <v>1.4</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I11" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
@@ -2619,10 +2622,10 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2631,16 +2634,16 @@
         <v>99999999</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>151</v>
+        <v>414</v>
       </c>
       <c r="I12" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2651,10 +2654,10 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13">
         <v>70</v>
@@ -2663,16 +2666,16 @@
         <v>1.2</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I13" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2683,10 +2686,10 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E14">
         <v>45</v>
@@ -2695,16 +2698,16 @@
         <v>1.2</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>159</v>
+        <v>417</v>
       </c>
       <c r="I14" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="J14">
         <v>6</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -2715,10 +2718,10 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15">
         <v>40</v>
@@ -2727,16 +2730,16 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I15" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J15">
         <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -2747,10 +2750,10 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16">
         <v>60</v>
@@ -2759,16 +2762,16 @@
         <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I16" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J16">
         <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2779,10 +2782,10 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -2791,16 +2794,16 @@
         <v>2</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I17" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J17">
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2811,10 +2814,10 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18">
         <v>50</v>
@@ -2823,16 +2826,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I18" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2843,10 +2846,10 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19">
         <v>60</v>
@@ -2855,16 +2858,16 @@
         <v>1.2</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I19" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2875,10 +2878,10 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20">
         <v>60</v>
@@ -2887,16 +2890,16 @@
         <v>1</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I20" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="J20">
         <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2907,10 +2910,10 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21">
         <v>60</v>
@@ -2919,16 +2922,16 @@
         <v>1.5</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I21" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J21">
         <v>4</v>
       </c>
       <c r="K21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2939,10 +2942,10 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22">
         <v>100</v>
@@ -2951,16 +2954,16 @@
         <v>1</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I22" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
       <c r="K22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2971,10 +2974,10 @@
         <v>5</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E23">
         <v>60</v>
@@ -2983,16 +2986,16 @@
         <v>1</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I23" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="J23">
         <v>1</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -3003,10 +3006,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -3015,10 +3018,10 @@
         <v>2</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>343</v>
+        <v>416</v>
       </c>
       <c r="I24" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="J24">
         <v>6</v>
@@ -3032,10 +3035,10 @@
         <v>5</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E25">
         <v>50</v>
@@ -3044,16 +3047,16 @@
         <v>0.4</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="I25" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J25">
         <v>5</v>
       </c>
       <c r="K25" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -3064,10 +3067,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E26">
         <v>75</v>
@@ -3076,10 +3079,10 @@
         <v>1.3</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="I26" t="s">
-        <v>308</v>
+        <v>421</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -3093,10 +3096,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D27" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E27">
         <v>70</v>
@@ -3105,16 +3108,16 @@
         <v>1</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="I27" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -3122,10 +3125,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D28" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E28">
         <v>50</v>
@@ -3134,10 +3137,10 @@
         <v>1</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="I28" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="J28">
         <v>6</v>
@@ -3151,10 +3154,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D29" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E29">
         <v>85</v>
@@ -3163,10 +3166,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="I29" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J29">
         <v>6</v>
@@ -3180,10 +3183,10 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D30" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -3192,10 +3195,10 @@
         <v>1.5</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="I30" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="J30">
         <v>6</v>
@@ -3209,10 +3212,10 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E31">
         <v>80</v>
@@ -3221,16 +3224,16 @@
         <v>2</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="I31" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J31">
         <v>6</v>
       </c>
       <c r="K31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -3241,10 +3244,10 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D32" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="E32">
         <v>100</v>
@@ -3253,10 +3256,10 @@
         <v>2</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="I32" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -3273,9 +3276,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1917D1-1E80-49DA-BCD2-DF0A5B07018B}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3300,10 +3303,10 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
@@ -3326,13 +3329,13 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
         <v>29</v>
@@ -3352,7 +3355,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3364,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3378,7 +3381,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3390,7 +3393,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3404,7 +3407,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -3416,7 +3419,7 @@
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3424,13 +3427,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3442,7 +3445,7 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3450,13 +3453,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3468,7 +3471,7 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3476,13 +3479,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" t="s">
         <v>83</v>
       </c>
-      <c r="C8" t="s">
-        <v>84</v>
-      </c>
       <c r="D8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3494,7 +3497,7 @@
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3502,13 +3505,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3520,7 +3523,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3528,13 +3531,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3546,7 +3549,7 @@
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3560,7 +3563,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3572,7 +3575,7 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3583,10 +3586,10 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>419</v>
       </c>
       <c r="D12" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3606,13 +3609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E13">
         <v>40</v>
@@ -3621,10 +3624,10 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3632,13 +3635,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>418</v>
       </c>
       <c r="D14" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3650,7 +3653,7 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3658,13 +3661,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
         <v>92</v>
       </c>
-      <c r="C15" t="s">
-        <v>93</v>
-      </c>
       <c r="D15" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3676,7 +3679,7 @@
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3684,13 +3687,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3702,7 +3705,7 @@
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3710,13 +3713,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
         <v>94</v>
       </c>
-      <c r="C17" t="s">
-        <v>95</v>
-      </c>
       <c r="D17" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3728,7 +3731,7 @@
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3736,13 +3739,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3754,7 +3757,7 @@
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3762,13 +3765,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3780,7 +3783,7 @@
         <v>6</v>
       </c>
       <c r="H19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -3788,25 +3791,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" t="s">
+        <v>294</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
         <v>105</v>
-      </c>
-      <c r="C20" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" t="s">
-        <v>298</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3814,13 +3817,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" t="s">
         <v>124</v>
       </c>
-      <c r="C21" t="s">
-        <v>126</v>
-      </c>
       <c r="D21" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3837,13 +3840,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -3855,7 +3858,7 @@
         <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -3863,13 +3866,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s">
         <v>125</v>
       </c>
-      <c r="C23" t="s">
-        <v>127</v>
-      </c>
       <c r="D23" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3881,7 +3884,7 @@
         <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3889,13 +3892,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C24" t="s">
-        <v>349</v>
+        <v>420</v>
       </c>
       <c r="D24" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3907,7 +3910,7 @@
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3915,13 +3918,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C25" t="s">
-        <v>352</v>
+        <v>423</v>
       </c>
       <c r="D25" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3938,13 +3941,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>346</v>
+      </c>
+      <c r="C26" t="s">
+        <v>347</v>
+      </c>
+      <c r="D26" t="s">
         <v>353</v>
-      </c>
-      <c r="C26" t="s">
-        <v>354</v>
-      </c>
-      <c r="D26" t="s">
-        <v>360</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3956,7 +3959,7 @@
         <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3964,13 +3967,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C27" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="D27" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3982,7 +3985,7 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3990,13 +3993,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C28" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D28" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4008,7 +4011,7 @@
         <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -4016,13 +4019,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C29" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="D29" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4034,7 +4037,7 @@
         <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -4042,13 +4045,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C30" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D30" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4060,7 +4063,7 @@
         <v>21</v>
       </c>
       <c r="H30" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -4068,13 +4071,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C31" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D31" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4086,7 +4089,7 @@
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -4094,13 +4097,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C32" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D32" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E32">
         <v>30</v>
@@ -4164,7 +4167,7 @@
         <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4175,7 +4178,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -4183,10 +4186,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4194,10 +4197,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4205,10 +4208,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -4216,10 +4219,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -4227,10 +4230,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C9" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4238,10 +4241,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C10" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -4249,10 +4252,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C11" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -4260,10 +4263,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C12" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -4277,7 +4280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB99EFAB-B000-4606-B7FA-03D380BA5ABF}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -4293,48 +4296,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4342,13 +4345,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -4359,13 +4362,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C4">
         <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -4376,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C5">
         <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -4393,13 +4396,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C6">
         <v>300</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -4410,13 +4413,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C7">
         <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -4427,13 +4430,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C8" s="9">
         <v>1000</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E8" s="9">
         <v>0.5</v>
@@ -4442,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4450,13 +4453,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C9">
         <v>200</v>
       </c>
       <c r="D9" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="E9">
         <v>2.5</v>
@@ -4467,13 +4470,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C10">
         <v>400</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E10">
         <v>1.2</v>
@@ -4484,13 +4487,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C11">
         <v>200</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4501,13 +4504,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C12">
         <v>300</v>
       </c>
       <c r="D12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E12">
         <v>0.8</v>
@@ -4518,13 +4521,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C13">
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -4535,13 +4538,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C14" s="9">
         <v>2000</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E14" s="9">
         <v>0.4</v>
@@ -4550,7 +4553,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4558,13 +4561,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C15">
         <v>300</v>
       </c>
       <c r="D15" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E15">
         <v>1.5</v>
@@ -4575,13 +4578,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C16">
         <v>500</v>
       </c>
       <c r="D16" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E16">
         <v>0.8</v>
@@ -4592,13 +4595,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C17">
         <v>800</v>
       </c>
       <c r="D17" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -4609,13 +4612,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C18">
         <v>1000</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E18">
         <v>1.8</v>
@@ -4626,13 +4629,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C19">
         <v>1000</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -4643,13 +4646,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C20" s="9">
         <v>3000</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E20" s="9">
         <v>1</v>
@@ -4658,7 +4661,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4666,13 +4669,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C21">
         <v>1000</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E21">
         <v>0.2</v>
@@ -4683,13 +4686,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C22">
         <v>500</v>
       </c>
       <c r="D22" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -4700,7 +4703,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C23" s="9">
         <v>2000</v>
@@ -4713,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -4721,13 +4724,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C24">
         <v>300</v>
       </c>
       <c r="D24" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -4738,13 +4741,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C25">
         <v>200</v>
       </c>
       <c r="D25" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -4755,13 +4758,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C26">
         <v>800</v>
       </c>
       <c r="D26" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -4772,13 +4775,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C27">
         <v>1000</v>
       </c>
       <c r="D27" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -4789,13 +4792,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C28">
         <v>600</v>
       </c>
       <c r="D28" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E28">
         <v>0.2</v>
@@ -4806,13 +4809,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C29">
         <v>800</v>
       </c>
       <c r="D29" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E29">
         <v>0.3</v>
@@ -4823,13 +4826,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C30">
         <v>300</v>
       </c>
       <c r="D30" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E30">
         <v>1.9</v>
@@ -4840,13 +4843,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C31">
         <v>500</v>
       </c>
       <c r="D31" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -4857,13 +4860,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C32">
         <v>500</v>
       </c>
       <c r="D32" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E32">
         <v>0.8</v>
@@ -4874,7 +4877,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C33" s="9">
         <v>10000</v>
@@ -4887,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -4895,7 +4898,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C34" s="9">
         <v>5000</v>
@@ -4908,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -4916,13 +4919,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C35">
         <v>800</v>
       </c>
       <c r="D35" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E35">
         <v>0.9</v>
@@ -4933,13 +4936,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C36">
         <v>900</v>
       </c>
       <c r="D36" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -4950,7 +4953,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C37">
         <v>200</v>
@@ -4964,7 +4967,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C38">
         <v>50</v>
@@ -5004,28 +5007,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H1" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="I1" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -5033,28 +5036,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H2" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="I2" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5062,10 +5065,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="C3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5074,10 +5077,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="G3" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -5088,10 +5091,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -5100,10 +5103,10 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G4" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -5114,10 +5117,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -5126,10 +5129,10 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G5" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -5140,10 +5143,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -5152,10 +5155,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="G6" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -5166,10 +5169,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -5178,10 +5181,10 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="G7" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -5192,10 +5195,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C8" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -5204,10 +5207,10 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="G8" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -5218,10 +5221,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -5230,10 +5233,10 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="G9" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -5244,10 +5247,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C10" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -5256,10 +5259,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H10">
         <v>6</v>
@@ -5270,10 +5273,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -5282,10 +5285,10 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G11" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -5296,10 +5299,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C12" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -5308,10 +5311,10 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="G12" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -5322,10 +5325,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C13" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D13">
         <v>11</v>
@@ -5334,10 +5337,10 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="G13" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H13">
         <v>12</v>
@@ -5351,10 +5354,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C14" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -5363,10 +5366,10 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G14" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="H14">
         <v>8</v>
@@ -5377,10 +5380,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C15" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -5389,10 +5392,10 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="G15" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -5403,10 +5406,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D16">
         <v>14</v>
@@ -5415,10 +5418,10 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="G16" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H16">
         <v>12</v>
@@ -5432,10 +5435,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D17">
         <v>15</v>
@@ -5444,10 +5447,10 @@
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="G17" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="H17">
         <v>9</v>
@@ -5458,10 +5461,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C18" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D18">
         <v>16</v>
@@ -5470,10 +5473,10 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G18" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -5487,10 +5490,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C19" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D19">
         <v>17</v>
@@ -5499,10 +5502,10 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="G19" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -5513,10 +5516,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C20" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D20">
         <v>18</v>
@@ -5525,10 +5528,10 @@
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="G20" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="H20">
         <v>8</v>
@@ -5539,10 +5542,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C21" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D21">
         <v>19</v>
@@ -5551,10 +5554,10 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="G21" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="H21">
         <v>10</v>
@@ -5565,10 +5568,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C22" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D22">
         <v>20</v>
@@ -5577,10 +5580,10 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="G22" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="H22">
         <v>11</v>

--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6675F739-CF4A-4709-B483-72D56FF445C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D923DF3E-C55A-49E8-911A-97BF13321F17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="424">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -661,11 +661,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#412900&gt;明明很普通却那么自信
-在一定时间向全体赋予&lt;color=#3AFFF3&gt;攻击力增益&lt;/color&gt;。&lt;/c&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#412900&gt;只要星星相同，可以与任何角色合体&lt;/c&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1741,6 +1736,11 @@
   </si>
   <si>
     <t>被动技能，可以与星星相同的人交换位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#412900&gt;中二少年欢乐多！
+在一定时间向全体赋予&lt;color=#3AFFF3&gt;攻击力增益&lt;/color&gt;。&lt;/c&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2234,9 +2234,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D0E652-86CF-433A-BD6F-177C0A6FDF59}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2279,7 +2279,7 @@
         <v>100</v>
       </c>
       <c r="I1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J1" t="s">
         <v>27</v>
@@ -2314,7 +2314,7 @@
         <v>101</v>
       </c>
       <c r="I2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J2" t="s">
         <v>26</v>
@@ -2346,7 +2346,7 @@
         <v>131</v>
       </c>
       <c r="I3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -2381,7 +2381,7 @@
         <v>102</v>
       </c>
       <c r="I4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -2410,10 +2410,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>144</v>
+        <v>423</v>
       </c>
       <c r="I5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J5">
         <v>6</v>
@@ -2433,7 +2433,7 @@
         <v>138</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -2442,10 +2442,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -2465,7 +2465,7 @@
         <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -2474,10 +2474,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -2506,10 +2506,10 @@
         <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J8">
         <v>7</v>
@@ -2538,10 +2538,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -2570,10 +2570,10 @@
         <v>1.4</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -2593,7 +2593,7 @@
         <v>138</v>
       </c>
       <c r="D11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -2602,10 +2602,10 @@
         <v>1.4</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -2625,7 +2625,7 @@
         <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -2634,16 +2634,16 @@
         <v>99999999</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -2666,10 +2666,10 @@
         <v>1.2</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -2689,7 +2689,7 @@
         <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E14">
         <v>45</v>
@@ -2698,10 +2698,10 @@
         <v>1.2</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J14">
         <v>6</v>
@@ -2730,10 +2730,10 @@
         <v>1.5</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J15">
         <v>6</v>
@@ -2765,7 +2765,7 @@
         <v>130</v>
       </c>
       <c r="I16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J16">
         <v>6</v>
@@ -2794,10 +2794,10 @@
         <v>2</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J17">
         <v>6</v>
@@ -2826,10 +2826,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -2858,10 +2858,10 @@
         <v>1.2</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -2890,10 +2890,10 @@
         <v>1</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J20">
         <v>3</v>
@@ -2922,10 +2922,10 @@
         <v>1.5</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J21">
         <v>4</v>
@@ -2954,10 +2954,10 @@
         <v>1</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -2986,10 +2986,10 @@
         <v>1</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -3009,7 +3009,7 @@
         <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -3018,10 +3018,10 @@
         <v>2</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I24" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J24">
         <v>6</v>
@@ -3038,7 +3038,7 @@
         <v>138</v>
       </c>
       <c r="D25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E25">
         <v>50</v>
@@ -3047,16 +3047,16 @@
         <v>0.4</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J25">
         <v>5</v>
       </c>
       <c r="K25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
@@ -3070,7 +3070,7 @@
         <v>138</v>
       </c>
       <c r="D26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E26">
         <v>75</v>
@@ -3079,10 +3079,10 @@
         <v>1.3</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I26" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -3099,7 +3099,7 @@
         <v>137</v>
       </c>
       <c r="D27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E27">
         <v>70</v>
@@ -3108,10 +3108,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -3128,7 +3128,7 @@
         <v>137</v>
       </c>
       <c r="D28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E28">
         <v>50</v>
@@ -3137,10 +3137,10 @@
         <v>1</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J28">
         <v>6</v>
@@ -3157,7 +3157,7 @@
         <v>138</v>
       </c>
       <c r="D29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E29">
         <v>85</v>
@@ -3166,10 +3166,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J29">
         <v>6</v>
@@ -3186,7 +3186,7 @@
         <v>137</v>
       </c>
       <c r="D30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -3195,10 +3195,10 @@
         <v>1.5</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J30">
         <v>6</v>
@@ -3215,7 +3215,7 @@
         <v>138</v>
       </c>
       <c r="D31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E31">
         <v>80</v>
@@ -3224,10 +3224,10 @@
         <v>2</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I31" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J31">
         <v>6</v>
@@ -3244,10 +3244,10 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E32">
         <v>100</v>
@@ -3256,10 +3256,10 @@
         <v>2</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -3276,7 +3276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1917D1-1E80-49DA-BCD2-DF0A5B07018B}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
@@ -3303,7 +3303,7 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E1" t="s">
         <v>36</v>
@@ -3329,7 +3329,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
@@ -3355,7 +3355,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3381,7 +3381,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -3433,7 +3433,7 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3459,7 +3459,7 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3485,7 +3485,7 @@
         <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3586,10 +3586,10 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3615,7 +3615,7 @@
         <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E13">
         <v>40</v>
@@ -3638,10 +3638,10 @@
         <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3667,7 +3667,7 @@
         <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3693,7 +3693,7 @@
         <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3719,7 +3719,7 @@
         <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3731,7 +3731,7 @@
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3745,7 +3745,7 @@
         <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3771,7 +3771,7 @@
         <v>110</v>
       </c>
       <c r="D19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3823,7 +3823,7 @@
         <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3846,7 +3846,7 @@
         <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -3872,7 +3872,7 @@
         <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3892,13 +3892,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C24" t="s">
+        <v>419</v>
+      </c>
+      <c r="D24" t="s">
         <v>343</v>
-      </c>
-      <c r="C24" t="s">
-        <v>420</v>
-      </c>
-      <c r="D24" t="s">
-        <v>344</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3918,13 +3918,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3941,13 +3941,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>345</v>
+      </c>
+      <c r="C26" t="s">
         <v>346</v>
       </c>
-      <c r="C26" t="s">
-        <v>347</v>
-      </c>
       <c r="D26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3959,7 +3959,7 @@
         <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3967,13 +3967,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>347</v>
+      </c>
+      <c r="C27" t="s">
         <v>348</v>
       </c>
-      <c r="C27" t="s">
-        <v>349</v>
-      </c>
       <c r="D27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3993,13 +3993,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4011,7 +4011,7 @@
         <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -4019,13 +4019,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -4045,13 +4045,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>355</v>
+      </c>
+      <c r="C30" t="s">
         <v>356</v>
       </c>
-      <c r="C30" t="s">
-        <v>357</v>
-      </c>
       <c r="D30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4063,7 +4063,7 @@
         <v>21</v>
       </c>
       <c r="H30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -4071,13 +4071,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>357</v>
+      </c>
+      <c r="C31" t="s">
         <v>358</v>
       </c>
-      <c r="C31" t="s">
-        <v>359</v>
-      </c>
       <c r="D31" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4089,7 +4089,7 @@
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -4097,13 +4097,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C32" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E32">
         <v>30</v>
@@ -4230,10 +4230,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4241,10 +4241,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>370</v>
+      </c>
+      <c r="C10" t="s">
         <v>371</v>
-      </c>
-      <c r="C10" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -4252,10 +4252,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" t="s">
         <v>373</v>
-      </c>
-      <c r="C11" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -4263,10 +4263,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -4296,48 +4296,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" t="s">
         <v>156</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" t="s">
         <v>157</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>222</v>
       </c>
-      <c r="D1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" t="s">
-        <v>223</v>
-      </c>
       <c r="F1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" t="s">
         <v>159</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" t="s">
         <v>160</v>
       </c>
-      <c r="C2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" t="s">
-        <v>161</v>
-      </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4345,13 +4345,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -4362,13 +4362,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4">
         <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -4379,13 +4379,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5">
         <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -4396,13 +4396,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C6">
         <v>300</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -4413,13 +4413,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C7">
         <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -4430,13 +4430,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="9">
         <v>1000</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E8" s="9">
         <v>0.5</v>
@@ -4445,7 +4445,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4453,13 +4453,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C9">
         <v>200</v>
       </c>
       <c r="D9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E9">
         <v>2.5</v>
@@ -4470,13 +4470,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10">
         <v>400</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E10">
         <v>1.2</v>
@@ -4487,13 +4487,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C11">
         <v>200</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4504,13 +4504,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C12">
         <v>300</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E12">
         <v>0.8</v>
@@ -4521,13 +4521,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C13">
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -4538,13 +4538,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C14" s="9">
         <v>2000</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E14" s="9">
         <v>0.4</v>
@@ -4553,7 +4553,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4561,13 +4561,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C15">
         <v>300</v>
       </c>
       <c r="D15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E15">
         <v>1.5</v>
@@ -4578,13 +4578,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16">
         <v>500</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E16">
         <v>0.8</v>
@@ -4595,13 +4595,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C17">
         <v>800</v>
       </c>
       <c r="D17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -4612,13 +4612,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C18">
         <v>1000</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E18">
         <v>1.8</v>
@@ -4629,13 +4629,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C19">
         <v>1000</v>
       </c>
       <c r="D19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -4646,13 +4646,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C20" s="9">
         <v>3000</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E20" s="9">
         <v>1</v>
@@ -4661,7 +4661,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4669,13 +4669,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C21">
         <v>1000</v>
       </c>
       <c r="D21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E21">
         <v>0.2</v>
@@ -4686,13 +4686,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C22">
         <v>500</v>
       </c>
       <c r="D22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -4703,7 +4703,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C23" s="9">
         <v>2000</v>
@@ -4716,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -4724,13 +4724,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C24">
         <v>300</v>
       </c>
       <c r="D24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -4741,13 +4741,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C25">
         <v>200</v>
       </c>
       <c r="D25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -4758,13 +4758,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C26">
         <v>800</v>
       </c>
       <c r="D26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -4775,13 +4775,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C27">
         <v>1000</v>
       </c>
       <c r="D27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -4792,13 +4792,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C28">
         <v>600</v>
       </c>
       <c r="D28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E28">
         <v>0.2</v>
@@ -4809,13 +4809,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C29">
         <v>800</v>
       </c>
       <c r="D29" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E29">
         <v>0.3</v>
@@ -4826,13 +4826,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C30">
         <v>300</v>
       </c>
       <c r="D30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E30">
         <v>1.9</v>
@@ -4843,13 +4843,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C31">
         <v>500</v>
       </c>
       <c r="D31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -4860,13 +4860,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C32">
         <v>500</v>
       </c>
       <c r="D32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E32">
         <v>0.8</v>
@@ -4877,7 +4877,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C33" s="9">
         <v>10000</v>
@@ -4890,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -4898,7 +4898,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C34" s="9">
         <v>5000</v>
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -4919,13 +4919,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C35">
         <v>800</v>
       </c>
       <c r="D35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E35">
         <v>0.9</v>
@@ -4936,13 +4936,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C36">
         <v>900</v>
       </c>
       <c r="D36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -4953,7 +4953,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C37">
         <v>200</v>
@@ -4967,7 +4967,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C38">
         <v>50</v>
@@ -5007,28 +5007,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G1" t="s">
         <v>319</v>
       </c>
-      <c r="G1" t="s">
-        <v>320</v>
-      </c>
       <c r="H1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -5036,28 +5036,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5065,10 +5065,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5077,10 +5077,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -5091,10 +5091,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -5103,10 +5103,10 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -5117,10 +5117,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -5129,10 +5129,10 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
+        <v>392</v>
+      </c>
+      <c r="G5" t="s">
         <v>393</v>
-      </c>
-      <c r="G5" t="s">
-        <v>394</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -5143,10 +5143,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -5155,10 +5155,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -5169,10 +5169,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -5181,10 +5181,10 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G7" t="s">
         <v>396</v>
-      </c>
-      <c r="G7" t="s">
-        <v>397</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -5195,10 +5195,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -5207,10 +5207,10 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
+        <v>395</v>
+      </c>
+      <c r="G8" t="s">
         <v>396</v>
-      </c>
-      <c r="G8" t="s">
-        <v>397</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -5221,10 +5221,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -5233,10 +5233,10 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
+        <v>397</v>
+      </c>
+      <c r="G9" t="s">
         <v>398</v>
-      </c>
-      <c r="G9" t="s">
-        <v>399</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -5247,10 +5247,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -5259,10 +5259,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H10">
         <v>6</v>
@@ -5273,10 +5273,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -5285,10 +5285,10 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
+        <v>392</v>
+      </c>
+      <c r="G11" t="s">
         <v>393</v>
-      </c>
-      <c r="G11" t="s">
-        <v>394</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -5299,10 +5299,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -5311,10 +5311,10 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
+        <v>401</v>
+      </c>
+      <c r="G12" t="s">
         <v>402</v>
-      </c>
-      <c r="G12" t="s">
-        <v>403</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -5325,10 +5325,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D13">
         <v>11</v>
@@ -5337,10 +5337,10 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
+        <v>405</v>
+      </c>
+      <c r="G13" t="s">
         <v>406</v>
-      </c>
-      <c r="G13" t="s">
-        <v>407</v>
       </c>
       <c r="H13">
         <v>12</v>
@@ -5354,10 +5354,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -5366,10 +5366,10 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H14">
         <v>8</v>
@@ -5380,10 +5380,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -5392,10 +5392,10 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -5406,10 +5406,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D16">
         <v>14</v>
@@ -5418,10 +5418,10 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
+        <v>405</v>
+      </c>
+      <c r="G16" t="s">
         <v>406</v>
-      </c>
-      <c r="G16" t="s">
-        <v>407</v>
       </c>
       <c r="H16">
         <v>12</v>
@@ -5435,10 +5435,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D17">
         <v>15</v>
@@ -5447,10 +5447,10 @@
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G17" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H17">
         <v>9</v>
@@ -5461,10 +5461,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D18">
         <v>16</v>
@@ -5473,10 +5473,10 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G18" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -5490,10 +5490,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D19">
         <v>17</v>
@@ -5502,10 +5502,10 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
+        <v>395</v>
+      </c>
+      <c r="G19" t="s">
         <v>396</v>
-      </c>
-      <c r="G19" t="s">
-        <v>397</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -5516,10 +5516,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D20">
         <v>18</v>
@@ -5528,10 +5528,10 @@
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G20" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H20">
         <v>8</v>
@@ -5542,10 +5542,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D21">
         <v>19</v>
@@ -5554,10 +5554,10 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
+        <v>401</v>
+      </c>
+      <c r="G21" t="s">
         <v>402</v>
-      </c>
-      <c r="G21" t="s">
-        <v>403</v>
       </c>
       <c r="H21">
         <v>10</v>
@@ -5568,10 +5568,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D22">
         <v>20</v>
@@ -5580,10 +5580,10 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
+        <v>403</v>
+      </c>
+      <c r="G22" t="s">
         <v>404</v>
-      </c>
-      <c r="G22" t="s">
-        <v>405</v>
       </c>
       <c r="H22">
         <v>11</v>

--- a/other/config.xlsx
+++ b/other/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ielgn\Desktop\myP\RPG_defence_243\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D923DF3E-C55A-49E8-911A-97BF13321F17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436C4799-33D7-4E11-9189-F550A96A5C6B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{3B90B871-488E-4F11-9E54-1A731DA99213}"/>
   </bookViews>
   <sheets>
     <sheet name="role" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="425">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -503,10 +503,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{type:3,num:30,add:10}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>相邻加速</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -626,10 +622,6 @@
   </si>
   <si>
     <t>主角</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产型角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1741,6 +1733,18 @@
   <si>
     <t>&lt;color=#412900&gt;中二少年欢乐多！
 在一定时间向全体赋予&lt;color=#3AFFF3&gt;攻击力增益&lt;/color&gt;。&lt;/c&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleType#number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type:3,num:100,add:50}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1878,7 +1882,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1916,6 +1920,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2232,130 +2242,140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D0E652-86CF-433A-BD6F-177C0A6FDF59}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="3.5" customWidth="1"/>
-    <col min="3" max="4" width="10.625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="72" customWidth="1"/>
-    <col min="8" max="8" width="8.875" customWidth="1"/>
-    <col min="9" max="9" width="24.5" customWidth="1"/>
-    <col min="10" max="10" width="8.5" customWidth="1"/>
-    <col min="11" max="11" width="66.5" customWidth="1"/>
+    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="3" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="72" customWidth="1"/>
+    <col min="9" max="9" width="8.875" customWidth="1"/>
+    <col min="10" max="10" width="24.5" customWidth="1"/>
+    <col min="11" max="11" width="8.5" customWidth="1"/>
+    <col min="12" max="12" width="66.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>128</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>133</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J2" t="s">
+        <v>285</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" t="s">
-        <v>288</v>
-      </c>
-      <c r="J1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" t="s">
-        <v>287</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>80</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.8</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="I3" t="s">
-        <v>303</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="H3" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" t="s">
+        <v>301</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2363,34 +2383,37 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>100</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>2</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="H4" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" t="s">
         <v>102</v>
       </c>
-      <c r="I4" t="s">
-        <v>412</v>
-      </c>
-      <c r="J4">
+      <c r="J4" t="s">
+        <v>410</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2398,31 +2421,34 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>100</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="I5" t="s">
-        <v>299</v>
-      </c>
-      <c r="J5">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="J5" t="s">
+        <v>297</v>
+      </c>
+      <c r="K5">
         <v>6</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2430,31 +2456,34 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="E6">
+        <v>136</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F6">
         <v>10</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="I6" t="s">
-        <v>300</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="J6" t="s">
+        <v>298</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2462,31 +2491,34 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7">
+        <v>137</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7">
         <v>30</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I7" t="s">
-        <v>301</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2494,31 +2526,34 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
         <v>42</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>80</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="I8" t="s">
-        <v>302</v>
-      </c>
-      <c r="J8">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="J8" t="s">
+        <v>300</v>
+      </c>
+      <c r="K8">
         <v>7</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2526,31 +2561,34 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>40</v>
       </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="I9" t="s">
-        <v>297</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J9" t="s">
+        <v>295</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2558,31 +2596,34 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>30</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1.4</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="I10" t="s">
-        <v>304</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="H10" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" t="s">
+        <v>302</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2590,31 +2631,34 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" t="s">
-        <v>334</v>
-      </c>
-      <c r="E11">
+        <v>136</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F11">
         <v>50</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1.4</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="I11" t="s">
-        <v>298</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2" t="s">
+      <c r="H11" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="J11" t="s">
+        <v>296</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2624,29 +2668,32 @@
       <c r="C12" t="s">
         <v>136</v>
       </c>
-      <c r="D12" t="s">
-        <v>332</v>
-      </c>
-      <c r="E12">
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>330</v>
+      </c>
+      <c r="F12">
         <v>0</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>99999999</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="I12" t="s">
-        <v>306</v>
-      </c>
-      <c r="J12">
+      <c r="H12" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="J12" t="s">
+        <v>304</v>
+      </c>
+      <c r="K12">
         <v>0</v>
       </c>
-      <c r="K12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2654,31 +2701,34 @@
         <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
         <v>45</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>70</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1.2</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="I13" t="s">
-        <v>305</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="H13" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J13" t="s">
+        <v>303</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2686,31 +2736,34 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" t="s">
-        <v>335</v>
-      </c>
-      <c r="E14">
+        <v>135</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>333</v>
+      </c>
+      <c r="F14">
         <v>45</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1.2</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="I14" t="s">
-        <v>308</v>
-      </c>
-      <c r="J14">
+      <c r="H14" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="J14" t="s">
+        <v>306</v>
+      </c>
+      <c r="K14">
         <v>6</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2718,31 +2771,34 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
         <v>46</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>40</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1.5</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="I15" t="s">
-        <v>309</v>
-      </c>
-      <c r="J15">
+      <c r="H15" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>307</v>
+      </c>
+      <c r="K15">
         <v>6</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2750,31 +2806,34 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
         <v>47</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>60</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="I16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J16">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" t="s">
+        <v>308</v>
+      </c>
+      <c r="K16">
         <v>6</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2782,31 +2841,34 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
         <v>50</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>100</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I17" t="s">
-        <v>311</v>
-      </c>
-      <c r="J17">
+      <c r="H17" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>309</v>
+      </c>
+      <c r="K17">
         <v>6</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2814,31 +2876,34 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
         <v>61</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>50</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="I18" t="s">
-        <v>310</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" s="4" t="s">
+      <c r="H18" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
+        <v>308</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2846,31 +2911,34 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
         <v>74</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>60</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1.2</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I19" t="s">
-        <v>312</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="5" t="s">
+      <c r="H19" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="J19" t="s">
+        <v>310</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2878,31 +2946,34 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
         <v>78</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>60</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="I20" t="s">
-        <v>313</v>
-      </c>
-      <c r="J20">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="J20" t="s">
+        <v>311</v>
+      </c>
+      <c r="K20">
         <v>3</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2910,31 +2981,34 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
         <v>62</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>60</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1.5</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="I21" t="s">
-        <v>314</v>
-      </c>
-      <c r="J21">
+      <c r="H21" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="J21" t="s">
+        <v>312</v>
+      </c>
+      <c r="K21">
         <v>4</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2942,31 +3016,34 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
         <v>73</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>100</v>
       </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="I22" t="s">
-        <v>310</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="J22" t="s">
+        <v>308</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -2974,31 +3051,34 @@
         <v>5</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" s="13">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
         <v>72</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>60</v>
       </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="I23" t="s">
-        <v>315</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" s="3" t="s">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="J23" t="s">
+        <v>313</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -3006,28 +3086,31 @@
         <v>2</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" t="s">
-        <v>323</v>
-      </c>
-      <c r="E24">
+        <v>136</v>
+      </c>
+      <c r="D24" s="14">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>321</v>
+      </c>
+      <c r="F24">
         <v>100</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>2</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="I24" t="s">
-        <v>340</v>
-      </c>
-      <c r="J24">
+      <c r="H24" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="J24" t="s">
+        <v>338</v>
+      </c>
+      <c r="K24">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -3035,31 +3118,34 @@
         <v>5</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" t="s">
-        <v>324</v>
-      </c>
-      <c r="E25">
+        <v>136</v>
+      </c>
+      <c r="D25" s="14">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>322</v>
+      </c>
+      <c r="F25">
         <v>50</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.4</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="I25" t="s">
-        <v>297</v>
-      </c>
-      <c r="J25">
+      <c r="H25" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="J25" t="s">
+        <v>295</v>
+      </c>
+      <c r="K25">
         <v>5</v>
       </c>
-      <c r="K25" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="L25" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -3067,28 +3153,31 @@
         <v>2</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" t="s">
-        <v>325</v>
-      </c>
-      <c r="E26">
+        <v>136</v>
+      </c>
+      <c r="D26" s="14">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>323</v>
+      </c>
+      <c r="F26">
         <v>75</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1.3</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="I26" t="s">
-        <v>420</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="H26" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="J26" t="s">
+        <v>418</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -3096,28 +3185,31 @@
         <v>4</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" t="s">
-        <v>326</v>
-      </c>
-      <c r="E27">
+        <v>135</v>
+      </c>
+      <c r="D27" s="13">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>324</v>
+      </c>
+      <c r="F27">
         <v>70</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>382</v>
-      </c>
-      <c r="I27" t="s">
-        <v>339</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="J27" t="s">
+        <v>337</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -3125,28 +3217,31 @@
         <v>3</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D28" t="s">
-        <v>327</v>
-      </c>
-      <c r="E28">
+        <v>135</v>
+      </c>
+      <c r="D28" s="13">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>325</v>
+      </c>
+      <c r="F28">
         <v>50</v>
       </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="I28" t="s">
-        <v>308</v>
-      </c>
-      <c r="J28">
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="J28" t="s">
+        <v>306</v>
+      </c>
+      <c r="K28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -3154,28 +3249,31 @@
         <v>3</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" t="s">
-        <v>328</v>
-      </c>
-      <c r="E29">
+        <v>136</v>
+      </c>
+      <c r="D29" s="14">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>326</v>
+      </c>
+      <c r="F29">
         <v>85</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="I29" t="s">
-        <v>311</v>
-      </c>
-      <c r="J29">
+      <c r="H29" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="J29" t="s">
+        <v>309</v>
+      </c>
+      <c r="K29">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -3183,28 +3281,31 @@
         <v>6</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" t="s">
-        <v>329</v>
-      </c>
-      <c r="E30">
+        <v>135</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>327</v>
+      </c>
+      <c r="F30">
         <v>100</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1.5</v>
       </c>
-      <c r="G30" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="I30" t="s">
-        <v>310</v>
-      </c>
-      <c r="J30">
+      <c r="H30" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="J30" t="s">
+        <v>308</v>
+      </c>
+      <c r="K30">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -3212,31 +3313,34 @@
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" t="s">
-        <v>330</v>
-      </c>
-      <c r="E31">
+        <v>136</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>328</v>
+      </c>
+      <c r="F31">
         <v>80</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>2</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="I31" t="s">
-        <v>341</v>
-      </c>
-      <c r="J31">
+      <c r="H31" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="J31" t="s">
+        <v>339</v>
+      </c>
+      <c r="K31">
         <v>6</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -3244,24 +3348,27 @@
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>336</v>
-      </c>
-      <c r="D32" t="s">
-        <v>331</v>
-      </c>
-      <c r="E32">
+        <v>334</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>329</v>
+      </c>
+      <c r="F32">
         <v>100</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>2</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="I32" t="s">
-        <v>307</v>
-      </c>
-      <c r="J32">
+      <c r="H32" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="J32" t="s">
+        <v>305</v>
+      </c>
+      <c r="K32">
         <v>1</v>
       </c>
     </row>
@@ -3276,9 +3383,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1917D1-1E80-49DA-BCD2-DF0A5B07018B}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3303,7 +3410,7 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E1" t="s">
         <v>36</v>
@@ -3329,7 +3436,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E2" t="s">
         <v>37</v>
@@ -3355,7 +3462,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3367,7 +3474,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3381,7 +3488,7 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3393,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3407,7 +3514,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E5">
         <v>40</v>
@@ -3433,7 +3540,7 @@
         <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3445,7 +3552,7 @@
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3459,7 +3566,7 @@
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3471,7 +3578,7 @@
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3485,7 +3592,7 @@
         <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -3497,7 +3604,7 @@
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3511,7 +3618,7 @@
         <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3523,7 +3630,7 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3537,7 +3644,7 @@
         <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3549,7 +3656,7 @@
         <v>9</v>
       </c>
       <c r="H10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3563,7 +3670,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3586,10 +3693,10 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -3615,7 +3722,7 @@
         <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E13">
         <v>40</v>
@@ -3627,7 +3734,7 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3638,10 +3745,10 @@
         <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -3653,7 +3760,7 @@
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3667,7 +3774,7 @@
         <v>92</v>
       </c>
       <c r="D15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3679,7 +3786,7 @@
         <v>12</v>
       </c>
       <c r="H15" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3693,7 +3800,7 @@
         <v>95</v>
       </c>
       <c r="D16" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -3705,7 +3812,7 @@
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3719,7 +3826,7 @@
         <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3731,7 +3838,7 @@
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -3745,7 +3852,7 @@
         <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3757,7 +3864,7 @@
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3768,10 +3875,10 @@
         <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3783,7 +3890,7 @@
         <v>6</v>
       </c>
       <c r="H19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -3797,7 +3904,7 @@
         <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -3809,7 +3916,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>105</v>
+        <v>424</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -3817,13 +3924,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3840,13 +3947,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D22" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E22">
         <v>10</v>
@@ -3858,7 +3965,7 @@
         <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -3866,13 +3973,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3884,7 +3991,7 @@
         <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -3892,13 +3999,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C24" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D24" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -3910,7 +4017,7 @@
         <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -3918,13 +4025,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C25" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D25" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3941,13 +4048,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C26" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -3959,7 +4066,7 @@
         <v>17</v>
       </c>
       <c r="H26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -3967,13 +4074,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C27" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D27" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3985,7 +4092,7 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -3993,13 +4100,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>347</v>
+      </c>
+      <c r="C28" t="s">
         <v>349</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>351</v>
-      </c>
-      <c r="D28" t="s">
-        <v>353</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -4011,7 +4118,7 @@
         <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -4019,13 +4126,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C29" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D29" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4037,7 +4144,7 @@
         <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -4045,13 +4152,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C30" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D30" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4063,7 +4170,7 @@
         <v>21</v>
       </c>
       <c r="H30" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -4071,13 +4178,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D31" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4089,7 +4196,7 @@
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -4097,13 +4204,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D32" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E32">
         <v>30</v>
@@ -4189,7 +4296,7 @@
         <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4197,10 +4304,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4208,10 +4315,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
         <v>113</v>
-      </c>
-      <c r="C7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -4219,10 +4326,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -4230,10 +4337,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4241,10 +4348,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -4252,10 +4359,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -4263,10 +4370,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -4296,48 +4403,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
         <v>155</v>
       </c>
-      <c r="B1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D1" t="s">
-        <v>157</v>
-      </c>
       <c r="E1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G1" t="s">
         <v>231</v>
-      </c>
-      <c r="G1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" t="s">
         <v>158</v>
       </c>
-      <c r="B2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D2" t="s">
-        <v>160</v>
-      </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -4345,13 +4452,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C3">
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -4362,13 +4469,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C4">
         <v>200</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -4379,13 +4486,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C5">
         <v>200</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -4396,13 +4503,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C6">
         <v>300</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -4413,13 +4520,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C7">
         <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -4430,13 +4537,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C8" s="9">
         <v>1000</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E8" s="9">
         <v>0.5</v>
@@ -4445,7 +4552,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -4453,13 +4560,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C9">
         <v>200</v>
       </c>
       <c r="D9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E9">
         <v>2.5</v>
@@ -4470,13 +4577,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C10">
         <v>400</v>
       </c>
       <c r="D10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E10">
         <v>1.2</v>
@@ -4487,13 +4594,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C11">
         <v>200</v>
       </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4504,13 +4611,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C12">
         <v>300</v>
       </c>
       <c r="D12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E12">
         <v>0.8</v>
@@ -4521,13 +4628,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C13">
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -4538,13 +4645,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C14" s="9">
         <v>2000</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E14" s="9">
         <v>0.4</v>
@@ -4553,7 +4660,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -4561,13 +4668,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C15">
         <v>300</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E15">
         <v>1.5</v>
@@ -4578,13 +4685,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C16">
         <v>500</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E16">
         <v>0.8</v>
@@ -4595,13 +4702,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C17">
         <v>800</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -4612,13 +4719,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C18">
         <v>1000</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E18">
         <v>1.8</v>
@@ -4629,13 +4736,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C19">
         <v>1000</v>
       </c>
       <c r="D19" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -4646,13 +4753,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C20" s="9">
         <v>3000</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E20" s="9">
         <v>1</v>
@@ -4661,7 +4768,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -4669,13 +4776,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C21">
         <v>1000</v>
       </c>
       <c r="D21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E21">
         <v>0.2</v>
@@ -4686,13 +4793,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C22">
         <v>500</v>
       </c>
       <c r="D22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -4703,7 +4810,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C23" s="9">
         <v>2000</v>
@@ -4716,7 +4823,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -4724,13 +4831,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C24">
         <v>300</v>
       </c>
       <c r="D24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -4741,13 +4848,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C25">
         <v>200</v>
       </c>
       <c r="D25" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -4758,13 +4865,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C26">
         <v>800</v>
       </c>
       <c r="D26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -4775,13 +4882,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C27">
         <v>1000</v>
       </c>
       <c r="D27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -4792,13 +4899,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C28">
         <v>600</v>
       </c>
       <c r="D28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E28">
         <v>0.2</v>
@@ -4809,13 +4916,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C29">
         <v>800</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E29">
         <v>0.3</v>
@@ -4826,13 +4933,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C30">
         <v>300</v>
       </c>
       <c r="D30" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E30">
         <v>1.9</v>
@@ -4843,13 +4950,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C31">
         <v>500</v>
       </c>
       <c r="D31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -4860,13 +4967,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C32">
         <v>500</v>
       </c>
       <c r="D32" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E32">
         <v>0.8</v>
@@ -4877,7 +4984,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C33" s="9">
         <v>10000</v>
@@ -4890,7 +4997,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -4898,7 +5005,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C34" s="9">
         <v>5000</v>
@@ -4911,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -4919,13 +5026,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C35">
         <v>800</v>
       </c>
       <c r="D35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E35">
         <v>0.9</v>
@@ -4936,13 +5043,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C36">
         <v>900</v>
       </c>
       <c r="D36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -4953,7 +5060,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C37">
         <v>200</v>
@@ -4967,7 +5074,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C38">
         <v>50</v>
@@ -5007,28 +5114,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="I1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -5036,28 +5143,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5065,10 +5172,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5077,10 +5184,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -5091,10 +5198,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -5103,10 +5210,10 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -5117,10 +5224,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -5129,10 +5236,10 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -5143,10 +5250,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -5155,10 +5262,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -5169,10 +5276,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -5181,10 +5288,10 @@
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H7">
         <v>5</v>
@@ -5195,10 +5302,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -5207,10 +5314,10 @@
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H8">
         <v>5</v>
@@ -5221,10 +5328,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -5233,10 +5340,10 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H9">
         <v>7</v>
@@ -5247,10 +5354,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D10">
         <v>8</v>
@@ -5259,10 +5366,10 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H10">
         <v>6</v>
@@ -5273,10 +5380,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D11">
         <v>9</v>
@@ -5285,10 +5392,10 @@
         <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -5299,10 +5406,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -5311,10 +5418,10 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -5325,10 +5432,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D13">
         <v>11</v>
@@ -5337,10 +5444,10 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G13" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H13">
         <v>12</v>
@@ -5354,10 +5461,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D14">
         <v>12</v>
@@ -5366,10 +5473,10 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H14">
         <v>8</v>
@@ -5380,10 +5487,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D15">
         <v>13</v>
@@ -5392,10 +5499,10 @@
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -5406,10 +5513,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C16" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D16">
         <v>14</v>
@@ -5418,10 +5525,10 @@
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="G16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H16">
         <v>12</v>
@@ -5435,10 +5542,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C17" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D17">
         <v>15</v>
@@ -5447,10 +5554,10 @@
         <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G17" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H17">
         <v>9</v>
@@ -5461,10 +5568,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D18">
         <v>16</v>
@@ -5473,10 +5580,10 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -5490,10 +5597,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D19">
         <v>17</v>
@@ -5502,10 +5609,10 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G19" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H19">
         <v>5</v>
@@ -5516,10 +5623,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D20">
         <v>18</v>
@@ -5528,10 +5635,10 @@
         <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G20" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H20">
         <v>8</v>
@@ -5542,10 +5649,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D21">
         <v>19</v>
@@ -5554,10 +5661,10 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="G21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H21">
         <v>10</v>
@@ -5568,10 +5675,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C22" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D22">
         <v>20</v>
@@ -5580,10 +5687,10 @@
         <v>20</v>
       </c>
       <c r="F22" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="G22" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H22">
         <v>11</v>
